--- a/JupyterNotebooks/AvgHW/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -73,25 +85,25 @@
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -677,25 +629,25 @@
         <v>0.9954006084214246</v>
       </c>
       <c r="D3">
-        <v>0.9991332059929949</v>
+        <v>1.016407778656226</v>
       </c>
       <c r="E3">
+        <v>0.9949642703555495</v>
+      </c>
+      <c r="F3">
+        <v>1.001322822287575</v>
+      </c>
+      <c r="G3">
         <v>1.003867986746092</v>
       </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0.9991332059929953</v>
+      </c>
+      <c r="I3">
         <v>0.9954006084214246</v>
       </c>
-      <c r="G3">
-        <v>1.016407778656226</v>
-      </c>
-      <c r="H3">
-        <v>0.9949642703555495</v>
-      </c>
-      <c r="I3">
-        <v>1.001322822287575</v>
-      </c>
       <c r="J3">
-        <v>0.9991332059929949</v>
+        <v>0.9991332059929953</v>
       </c>
       <c r="K3">
         <v>0.9954006084214246</v>
@@ -704,13 +656,13 @@
         <v>1.003867986746092</v>
       </c>
       <c r="M3">
-        <v>1.001500596369543</v>
+        <v>1.001500596369544</v>
       </c>
       <c r="N3">
-        <v>1.001500596369543</v>
+        <v>1.001500596369544</v>
       </c>
       <c r="O3">
-        <v>0.9993218210315454</v>
+        <v>0.9993218210315455</v>
       </c>
       <c r="P3">
         <v>0.9994672670535039</v>
@@ -728,7 +680,7 @@
         <v>1.001849445409977</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -739,22 +691,22 @@
         <v>0.9911777093690577</v>
       </c>
       <c r="D4">
+        <v>1.031161976488954</v>
+      </c>
+      <c r="E4">
+        <v>0.9903266645286525</v>
+      </c>
+      <c r="F4">
+        <v>1.002632416418542</v>
+      </c>
+      <c r="G4">
+        <v>1.007544156624389</v>
+      </c>
+      <c r="H4">
         <v>0.9976045975595175</v>
       </c>
-      <c r="E4">
-        <v>1.007544156624389</v>
-      </c>
-      <c r="F4">
+      <c r="I4">
         <v>0.9911777093690577</v>
-      </c>
-      <c r="G4">
-        <v>1.031161976488954</v>
-      </c>
-      <c r="H4">
-        <v>0.9903266645286525</v>
-      </c>
-      <c r="I4">
-        <v>1.002632416418542</v>
       </c>
       <c r="J4">
         <v>0.9976045975595175</v>
@@ -790,7 +742,7 @@
         <v>1.003407920164852</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -801,22 +753,22 @@
         <v>0.9843738631234213</v>
       </c>
       <c r="D5">
+        <v>1.059130541473014</v>
+      </c>
+      <c r="E5">
+        <v>0.9813597273728195</v>
+      </c>
+      <c r="F5">
+        <v>1.004983419947588</v>
+      </c>
+      <c r="G5">
+        <v>1.013882813979137</v>
+      </c>
+      <c r="H5">
         <v>0.9956918653324878</v>
       </c>
-      <c r="E5">
-        <v>1.013882813979137</v>
-      </c>
-      <c r="F5">
+      <c r="I5">
         <v>0.9843738631234213</v>
-      </c>
-      <c r="G5">
-        <v>1.059130541473014</v>
-      </c>
-      <c r="H5">
-        <v>0.9813597273728195</v>
-      </c>
-      <c r="I5">
-        <v>1.004983419947588</v>
       </c>
       <c r="J5">
         <v>0.9956918653324878</v>
@@ -852,7 +804,7 @@
         <v>1.006570371871411</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,22 +815,22 @@
         <v>0.9782040752536101</v>
       </c>
       <c r="D6">
+        <v>1.086231386598525</v>
+      </c>
+      <c r="E6">
+        <v>0.9723886595822702</v>
+      </c>
+      <c r="F6">
+        <v>1.00727940912792</v>
+      </c>
+      <c r="G6">
+        <v>1.020182341757642</v>
+      </c>
+      <c r="H6">
         <v>0.9939372477037227</v>
       </c>
-      <c r="E6">
-        <v>1.020182341757642</v>
-      </c>
-      <c r="F6">
+      <c r="I6">
         <v>0.9782040752536101</v>
-      </c>
-      <c r="G6">
-        <v>1.086231386598525</v>
-      </c>
-      <c r="H6">
-        <v>0.9723886595822702</v>
-      </c>
-      <c r="I6">
-        <v>1.00727940912792</v>
       </c>
       <c r="J6">
         <v>0.9939372477037227</v>
@@ -914,7 +866,7 @@
         <v>1.009703853337282</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -925,22 +877,22 @@
         <v>1.001161487393464</v>
       </c>
       <c r="D7">
+        <v>0.999648003006993</v>
+      </c>
+      <c r="E7">
+        <v>0.9995548435511542</v>
+      </c>
+      <c r="F7">
+        <v>1.000200473676888</v>
+      </c>
+      <c r="G7">
+        <v>0.9998147899810029</v>
+      </c>
+      <c r="H7">
         <v>0.9990191406540014</v>
       </c>
-      <c r="E7">
-        <v>0.9998147899810028</v>
-      </c>
-      <c r="F7">
+      <c r="I7">
         <v>1.001161487393464</v>
-      </c>
-      <c r="G7">
-        <v>0.9996480030069937</v>
-      </c>
-      <c r="H7">
-        <v>0.9995548435511532</v>
-      </c>
-      <c r="I7">
-        <v>1.000200473676888</v>
       </c>
       <c r="J7">
         <v>0.9990191406540014</v>
@@ -949,16 +901,16 @@
         <v>1.001161487393464</v>
       </c>
       <c r="L7">
-        <v>0.9998147899810028</v>
+        <v>0.9998147899810029</v>
       </c>
       <c r="M7">
-        <v>0.9994169653175021</v>
+        <v>0.9994169653175022</v>
       </c>
       <c r="N7">
-        <v>0.9994169653175021</v>
+        <v>0.9994169653175022</v>
       </c>
       <c r="O7">
-        <v>0.9994629247287191</v>
+        <v>0.9994629247287196</v>
       </c>
       <c r="P7">
         <v>0.9999984726761563</v>
@@ -976,7 +928,7 @@
         <v>0.9998997897105838</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,31 +939,31 @@
         <v>1.002992145120057</v>
       </c>
       <c r="D8">
-        <v>0.9976470960848934</v>
+        <v>0.9988595500957709</v>
       </c>
       <c r="E8">
-        <v>0.9994616799029199</v>
+        <v>0.9989682493993196</v>
       </c>
       <c r="F8">
+        <v>1.000470796067003</v>
+      </c>
+      <c r="G8">
+        <v>0.9994616799029203</v>
+      </c>
+      <c r="H8">
+        <v>0.9976470960848931</v>
+      </c>
+      <c r="I8">
         <v>1.002992145120057</v>
       </c>
-      <c r="G8">
-        <v>0.99885955009577</v>
-      </c>
-      <c r="H8">
-        <v>0.9989682493993198</v>
-      </c>
-      <c r="I8">
-        <v>1.000470796067003</v>
-      </c>
       <c r="J8">
-        <v>0.9976470960848934</v>
+        <v>0.9976470960848931</v>
       </c>
       <c r="K8">
         <v>1.002992145120057</v>
       </c>
       <c r="L8">
-        <v>0.9994616799029199</v>
+        <v>0.9994616799029203</v>
       </c>
       <c r="M8">
         <v>0.9985543879939067</v>
@@ -1020,7 +972,7 @@
         <v>0.9985543879939067</v>
       </c>
       <c r="O8">
-        <v>0.9986923417957111</v>
+        <v>0.998692341795711</v>
       </c>
       <c r="P8">
         <v>1.00003364036929</v>
@@ -1038,7 +990,7 @@
         <v>0.9997332527783271</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1049,22 +1001,22 @@
         <v>1.004476490170248</v>
       </c>
       <c r="D9">
+        <v>0.9986126836080156</v>
+      </c>
+      <c r="E9">
+        <v>0.998277507768574</v>
+      </c>
+      <c r="F9">
+        <v>1.000785154449024</v>
+      </c>
+      <c r="G9">
+        <v>0.9992956202530529</v>
+      </c>
+      <c r="H9">
         <v>0.9961784923004164</v>
       </c>
-      <c r="E9">
-        <v>0.9992956202530529</v>
-      </c>
-      <c r="F9">
+      <c r="I9">
         <v>1.004476490170248</v>
-      </c>
-      <c r="G9">
-        <v>0.9986126836080158</v>
-      </c>
-      <c r="H9">
-        <v>0.998277507768574</v>
-      </c>
-      <c r="I9">
-        <v>1.000785154449024</v>
       </c>
       <c r="J9">
         <v>0.9961784923004164</v>
@@ -1100,7 +1052,7 @@
         <v>0.9996043247582219</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,25 +1063,25 @@
         <v>1.009225360900491</v>
       </c>
       <c r="D10">
-        <v>0.9922314808290141</v>
+        <v>0.9969859189676863</v>
       </c>
       <c r="E10">
+        <v>0.9965231868959028</v>
+      </c>
+      <c r="F10">
+        <v>1.001587105011161</v>
+      </c>
+      <c r="G10">
         <v>0.9985191295345618</v>
       </c>
-      <c r="F10">
+      <c r="H10">
+        <v>0.9922314808290144</v>
+      </c>
+      <c r="I10">
         <v>1.009225360900491</v>
       </c>
-      <c r="G10">
-        <v>0.9969859189676863</v>
-      </c>
-      <c r="H10">
-        <v>0.9965231868959028</v>
-      </c>
-      <c r="I10">
-        <v>1.001587105011161</v>
-      </c>
       <c r="J10">
-        <v>0.9922314808290141</v>
+        <v>0.9922314808290144</v>
       </c>
       <c r="K10">
         <v>1.009225360900491</v>
@@ -1138,10 +1090,10 @@
         <v>0.9985191295345618</v>
       </c>
       <c r="M10">
-        <v>0.995375305181788</v>
+        <v>0.9953753051817881</v>
       </c>
       <c r="N10">
-        <v>0.995375305181788</v>
+        <v>0.9953753051817881</v>
       </c>
       <c r="O10">
         <v>0.9957579324198264</v>
@@ -1162,7 +1114,7 @@
         <v>0.9991786970231362</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>1.016238053354957</v>
       </c>
       <c r="D11">
-        <v>0.9860452313382</v>
+        <v>0.9948182287564317</v>
       </c>
       <c r="E11">
+        <v>0.9937428092305389</v>
+      </c>
+      <c r="F11">
+        <v>1.002873259990368</v>
+      </c>
+      <c r="G11">
         <v>0.9975024557554489</v>
       </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0.9860452313381999</v>
+      </c>
+      <c r="I11">
         <v>1.016238053354957</v>
       </c>
-      <c r="G11">
-        <v>0.9948182287564317</v>
-      </c>
-      <c r="H11">
-        <v>0.9937428092305391</v>
-      </c>
-      <c r="I11">
-        <v>1.002873259990368</v>
-      </c>
       <c r="J11">
-        <v>0.9860452313382</v>
+        <v>0.9860452313381999</v>
       </c>
       <c r="K11">
         <v>1.016238053354957</v>
@@ -1224,7 +1176,7 @@
         <v>0.9985366730709909</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,25 +1187,25 @@
         <v>0.9422085480144063</v>
       </c>
       <c r="D12">
-        <v>0.9318562016855162</v>
+        <v>1.012390764726488</v>
       </c>
       <c r="E12">
+        <v>0.9974542226888108</v>
+      </c>
+      <c r="F12">
+        <v>1.011593383523964</v>
+      </c>
+      <c r="G12">
         <v>1.039747067715987</v>
       </c>
-      <c r="F12">
+      <c r="H12">
+        <v>0.9318562016855163</v>
+      </c>
+      <c r="I12">
         <v>0.9422085480144063</v>
       </c>
-      <c r="G12">
-        <v>1.012390764726487</v>
-      </c>
-      <c r="H12">
-        <v>0.9974542226888108</v>
-      </c>
-      <c r="I12">
-        <v>1.011593383523964</v>
-      </c>
       <c r="J12">
-        <v>0.9318562016855162</v>
+        <v>0.9318562016855163</v>
       </c>
       <c r="K12">
         <v>0.9422085480144063</v>
@@ -1274,19 +1226,19 @@
         <v>0.9712706058053032</v>
       </c>
       <c r="Q12">
-        <v>0.9712706058053032</v>
+        <v>0.9712706058053033</v>
       </c>
       <c r="R12">
-        <v>0.9640050913575789</v>
+        <v>0.9640050913575791</v>
       </c>
       <c r="S12">
-        <v>0.9640050913575789</v>
+        <v>0.9640050913575791</v>
       </c>
       <c r="T12">
-        <v>0.9892083647258619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.989208364725862</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,22 +1249,22 @@
         <v>1.059548244205389</v>
       </c>
       <c r="D13">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="E13">
+        <v>0.9928450615510304</v>
+      </c>
+      <c r="F13">
+        <v>0.9890386921676247</v>
+      </c>
+      <c r="G13">
+        <v>0.9601667937851361</v>
+      </c>
+      <c r="H13">
         <v>1.067964252920152</v>
       </c>
-      <c r="E13">
-        <v>0.9601667937851364</v>
-      </c>
-      <c r="F13">
+      <c r="I13">
         <v>1.059548244205389</v>
-      </c>
-      <c r="G13">
-        <v>1.02319818206806</v>
-      </c>
-      <c r="H13">
-        <v>0.9928450615510304</v>
-      </c>
-      <c r="I13">
-        <v>0.9890386921676247</v>
       </c>
       <c r="J13">
         <v>1.067964252920152</v>
@@ -1321,7 +1273,7 @@
         <v>1.059548244205389</v>
       </c>
       <c r="L13">
-        <v>0.9601667937851364</v>
+        <v>0.9601667937851361</v>
       </c>
       <c r="M13">
         <v>1.014065523352644</v>
@@ -1348,7 +1300,7 @@
         <v>1.015460204449565</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,22 +1311,22 @@
         <v>0.8731923049019394</v>
       </c>
       <c r="D14">
+        <v>2.273757410017423</v>
+      </c>
+      <c r="E14">
+        <v>0.3739415155053741</v>
+      </c>
+      <c r="F14">
+        <v>1.254853269454525</v>
+      </c>
+      <c r="G14">
+        <v>1.411107354708371</v>
+      </c>
+      <c r="H14">
         <v>0.1398369913072594</v>
       </c>
-      <c r="E14">
-        <v>1.411107354708371</v>
-      </c>
-      <c r="F14">
+      <c r="I14">
         <v>0.8731923049019394</v>
-      </c>
-      <c r="G14">
-        <v>2.273757410017423</v>
-      </c>
-      <c r="H14">
-        <v>0.3739415155053741</v>
-      </c>
-      <c r="I14">
-        <v>1.254853269454525</v>
       </c>
       <c r="J14">
         <v>0.1398369913072594</v>
@@ -1386,16 +1338,16 @@
         <v>1.411107354708371</v>
       </c>
       <c r="M14">
-        <v>0.7754721730078152</v>
+        <v>0.7754721730078151</v>
       </c>
       <c r="N14">
-        <v>0.7754721730078152</v>
+        <v>0.7754721730078151</v>
       </c>
       <c r="O14">
-        <v>0.6416286205070015</v>
+        <v>0.6416286205070014</v>
       </c>
       <c r="P14">
-        <v>0.8080455503058567</v>
+        <v>0.8080455503058565</v>
       </c>
       <c r="Q14">
         <v>0.8080455503058567</v>
@@ -1410,7 +1362,7 @@
         <v>1.054448140982482</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,22 +1373,22 @@
         <v>1.236171008120947</v>
       </c>
       <c r="D15">
+        <v>0.9754516980295287</v>
+      </c>
+      <c r="E15">
+        <v>0.8176698907503707</v>
+      </c>
+      <c r="F15">
+        <v>1.102555332185788</v>
+      </c>
+      <c r="G15">
+        <v>1.04786352455284</v>
+      </c>
+      <c r="H15">
         <v>0.539790818061379</v>
       </c>
-      <c r="E15">
-        <v>1.04786352455284</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
         <v>1.236171008120947</v>
-      </c>
-      <c r="G15">
-        <v>0.9754516980295287</v>
-      </c>
-      <c r="H15">
-        <v>0.8176698907503707</v>
-      </c>
-      <c r="I15">
-        <v>1.102555332185788</v>
       </c>
       <c r="J15">
         <v>0.539790818061379</v>
@@ -1472,7 +1424,7 @@
         <v>0.9532503786168088</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9995998971352509</v>
+        <v>0.9245606491268805</v>
       </c>
       <c r="D16">
-        <v>1.001007354090672</v>
+        <v>1.296775908116499</v>
       </c>
       <c r="E16">
-        <v>0.9999604246063594</v>
+        <v>0.9021963301154684</v>
       </c>
       <c r="F16">
-        <v>0.9995998971352509</v>
+        <v>1.028051375221237</v>
       </c>
       <c r="G16">
-        <v>1.001127443326781</v>
+        <v>1.072291673446502</v>
       </c>
       <c r="H16">
-        <v>0.9999836861461904</v>
+        <v>0.9629651187201463</v>
       </c>
       <c r="I16">
-        <v>0.999853690102819</v>
+        <v>0.9245606491268805</v>
       </c>
       <c r="J16">
-        <v>1.001007354090672</v>
+        <v>0.9629651187201463</v>
       </c>
       <c r="K16">
-        <v>0.9995998971352509</v>
+        <v>0.9245606491268805</v>
       </c>
       <c r="L16">
-        <v>0.9999604246063594</v>
+        <v>1.072291673446502</v>
       </c>
       <c r="M16">
-        <v>1.000483889348516</v>
+        <v>1.017628396083324</v>
       </c>
       <c r="N16">
-        <v>1.000483889348516</v>
+        <v>1.017628396083324</v>
       </c>
       <c r="O16">
-        <v>1.000317154947741</v>
+        <v>0.9791510407607055</v>
       </c>
       <c r="P16">
-        <v>1.000189225277427</v>
+        <v>0.9866058137645096</v>
       </c>
       <c r="Q16">
-        <v>1.000189225277428</v>
+        <v>0.9866058137645096</v>
       </c>
       <c r="R16">
-        <v>1.000041893241884</v>
+        <v>0.9710945226051024</v>
       </c>
       <c r="S16">
-        <v>1.000041893241884</v>
+        <v>0.9710945226051024</v>
       </c>
       <c r="T16">
-        <v>1.000255415901346</v>
+        <v>1.031140175791122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002507886988703</v>
+        <v>0.9834348638521659</v>
       </c>
       <c r="D17">
-        <v>0.9973544264949608</v>
+        <v>1.191925147216256</v>
       </c>
       <c r="E17">
-        <v>0.9996314345506401</v>
+        <v>0.9185627809530909</v>
       </c>
       <c r="F17">
-        <v>1.002507886988703</v>
+        <v>1.026297565350673</v>
       </c>
       <c r="G17">
-        <v>0.99752935635107</v>
+        <v>1.045203989164202</v>
       </c>
       <c r="H17">
-        <v>0.999443763119369</v>
+        <v>0.9394865540089953</v>
       </c>
       <c r="I17">
-        <v>1.000462184973712</v>
+        <v>0.9834348638521659</v>
       </c>
       <c r="J17">
-        <v>0.9973544264949608</v>
+        <v>0.9394865540089953</v>
       </c>
       <c r="K17">
-        <v>1.002507886988703</v>
+        <v>0.9834348638521659</v>
       </c>
       <c r="L17">
-        <v>0.9996314345506401</v>
+        <v>1.045203989164202</v>
       </c>
       <c r="M17">
-        <v>0.9984929305228004</v>
+        <v>0.9923452715865988</v>
       </c>
       <c r="N17">
-        <v>0.9984929305228004</v>
+        <v>0.9923452715865988</v>
       </c>
       <c r="O17">
-        <v>0.9988098747216566</v>
+        <v>0.9677511080420961</v>
       </c>
       <c r="P17">
-        <v>0.9998312493447679</v>
+        <v>0.9893751356751211</v>
       </c>
       <c r="Q17">
-        <v>0.9998312493447679</v>
+        <v>0.9893751356751213</v>
       </c>
       <c r="R17">
-        <v>1.000500408755752</v>
+        <v>0.9878900677193825</v>
       </c>
       <c r="S17">
-        <v>1.000500408755752</v>
+        <v>0.9878900677193825</v>
       </c>
       <c r="T17">
-        <v>0.9994881754130759</v>
+        <v>1.017485150090897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9956544766791313</v>
+        <v>1.100099438437108</v>
       </c>
       <c r="D18">
-        <v>1.003218111259674</v>
+        <v>0.9831891506506502</v>
       </c>
       <c r="E18">
-        <v>1.001699551507158</v>
+        <v>0.9514190674240828</v>
       </c>
       <c r="F18">
-        <v>0.9956544766791313</v>
+        <v>1.022696475313899</v>
       </c>
       <c r="G18">
-        <v>1.00980838366082</v>
+        <v>0.9913388548978033</v>
       </c>
       <c r="H18">
-        <v>0.9985668291630945</v>
+        <v>0.8932172014432441</v>
       </c>
       <c r="I18">
-        <v>0.9998900165929933</v>
+        <v>1.100099438437108</v>
       </c>
       <c r="J18">
-        <v>1.003218111259674</v>
+        <v>0.8932172014432441</v>
       </c>
       <c r="K18">
-        <v>0.9956544766791313</v>
+        <v>1.100099438437108</v>
       </c>
       <c r="L18">
-        <v>1.001699551507158</v>
+        <v>0.9913388548978033</v>
       </c>
       <c r="M18">
-        <v>1.002458831383416</v>
+        <v>0.9422780281705236</v>
       </c>
       <c r="N18">
-        <v>1.002458831383416</v>
+        <v>0.9422780281705236</v>
       </c>
       <c r="O18">
-        <v>1.001161497309975</v>
+        <v>0.9453250412550434</v>
       </c>
       <c r="P18">
-        <v>1.000190713148654</v>
+        <v>0.9948851649260518</v>
       </c>
       <c r="Q18">
-        <v>1.000190713148654</v>
+        <v>0.9948851649260518</v>
       </c>
       <c r="R18">
-        <v>0.9990566540312736</v>
+        <v>1.021188733303816</v>
       </c>
       <c r="S18">
-        <v>0.9990566540312736</v>
+        <v>1.021188733303816</v>
       </c>
       <c r="T18">
-        <v>1.001472894810479</v>
+        <v>0.9903266980277978</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.134906186764854</v>
+      </c>
+      <c r="D19">
+        <v>0.9607853864515704</v>
+      </c>
+      <c r="E19">
+        <v>0.9479177195226753</v>
+      </c>
+      <c r="F19">
+        <v>1.02321696326605</v>
+      </c>
+      <c r="G19">
+        <v>0.9779272420823603</v>
+      </c>
+      <c r="H19">
+        <v>0.8892174754869826</v>
+      </c>
+      <c r="I19">
+        <v>1.134906186764854</v>
+      </c>
+      <c r="J19">
+        <v>0.8892174754869826</v>
+      </c>
+      <c r="K19">
+        <v>1.134906186764854</v>
+      </c>
+      <c r="L19">
+        <v>0.9779272420823603</v>
+      </c>
+      <c r="M19">
+        <v>0.9335723587846714</v>
+      </c>
+      <c r="N19">
+        <v>0.9335723587846714</v>
+      </c>
+      <c r="O19">
+        <v>0.9383541456973393</v>
+      </c>
+      <c r="P19">
+        <v>1.000683634778066</v>
+      </c>
+      <c r="Q19">
+        <v>1.000683634778066</v>
+      </c>
+      <c r="R19">
+        <v>1.034239272774763</v>
+      </c>
+      <c r="S19">
+        <v>1.034239272774763</v>
+      </c>
+      <c r="T19">
+        <v>0.9889951622624155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9995998971352509</v>
+      </c>
+      <c r="D20">
+        <v>1.001127443326782</v>
+      </c>
+      <c r="E20">
+        <v>0.9999836861461904</v>
+      </c>
+      <c r="F20">
+        <v>0.9998536901028192</v>
+      </c>
+      <c r="G20">
+        <v>0.9999604246063594</v>
+      </c>
+      <c r="H20">
+        <v>1.001007354090671</v>
+      </c>
+      <c r="I20">
+        <v>0.9995998971352509</v>
+      </c>
+      <c r="J20">
+        <v>1.001007354090671</v>
+      </c>
+      <c r="K20">
+        <v>0.9995998971352509</v>
+      </c>
+      <c r="L20">
+        <v>0.9999604246063594</v>
+      </c>
+      <c r="M20">
+        <v>1.000483889348515</v>
+      </c>
+      <c r="N20">
+        <v>1.000483889348515</v>
+      </c>
+      <c r="O20">
+        <v>1.00031715494774</v>
+      </c>
+      <c r="P20">
+        <v>1.000189225277427</v>
+      </c>
+      <c r="Q20">
+        <v>1.000189225277427</v>
+      </c>
+      <c r="R20">
+        <v>1.000041893241883</v>
+      </c>
+      <c r="S20">
+        <v>1.000041893241883</v>
+      </c>
+      <c r="T20">
+        <v>1.000255415901346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.002507886988702</v>
+      </c>
+      <c r="D21">
+        <v>0.9975293563510699</v>
+      </c>
+      <c r="E21">
+        <v>0.9994437631193687</v>
+      </c>
+      <c r="F21">
+        <v>1.000462184973712</v>
+      </c>
+      <c r="G21">
+        <v>0.9996314345506389</v>
+      </c>
+      <c r="H21">
+        <v>0.9973544264949608</v>
+      </c>
+      <c r="I21">
+        <v>1.002507886988702</v>
+      </c>
+      <c r="J21">
+        <v>0.9973544264949608</v>
+      </c>
+      <c r="K21">
+        <v>1.002507886988702</v>
+      </c>
+      <c r="L21">
+        <v>0.9996314345506389</v>
+      </c>
+      <c r="M21">
+        <v>0.9984929305227999</v>
+      </c>
+      <c r="N21">
+        <v>0.9984929305227999</v>
+      </c>
+      <c r="O21">
+        <v>0.9988098747216562</v>
+      </c>
+      <c r="P21">
+        <v>0.9998312493447674</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998312493447673</v>
+      </c>
+      <c r="R21">
+        <v>1.000500408755751</v>
+      </c>
+      <c r="S21">
+        <v>1.000500408755751</v>
+      </c>
+      <c r="T21">
+        <v>0.9994881754130754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9956544766791313</v>
+      </c>
+      <c r="D22">
+        <v>1.00980838366082</v>
+      </c>
+      <c r="E22">
+        <v>0.9985668291630947</v>
+      </c>
+      <c r="F22">
+        <v>0.9998900165929933</v>
+      </c>
+      <c r="G22">
+        <v>1.001699551507158</v>
+      </c>
+      <c r="H22">
+        <v>1.003218111259674</v>
+      </c>
+      <c r="I22">
+        <v>0.9956544766791313</v>
+      </c>
+      <c r="J22">
+        <v>1.003218111259674</v>
+      </c>
+      <c r="K22">
+        <v>0.9956544766791313</v>
+      </c>
+      <c r="L22">
+        <v>1.001699551507158</v>
+      </c>
+      <c r="M22">
+        <v>1.002458831383416</v>
+      </c>
+      <c r="N22">
+        <v>1.002458831383416</v>
+      </c>
+      <c r="O22">
+        <v>1.001161497309975</v>
+      </c>
+      <c r="P22">
+        <v>1.000190713148654</v>
+      </c>
+      <c r="Q22">
+        <v>1.000190713148654</v>
+      </c>
+      <c r="R22">
+        <v>0.9990566540312735</v>
+      </c>
+      <c r="S22">
+        <v>0.9990566540312735</v>
+      </c>
+      <c r="T22">
+        <v>1.001472894810479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9815920966226858</v>
       </c>
-      <c r="D19">
+      <c r="D23">
+        <v>1.035525848225541</v>
+      </c>
+      <c r="E23">
+        <v>0.9969288831100792</v>
+      </c>
+      <c r="F23">
+        <v>0.9984874946428898</v>
+      </c>
+      <c r="G23">
+        <v>1.005458290341542</v>
+      </c>
+      <c r="H23">
         <v>1.016966660699337</v>
       </c>
-      <c r="E19">
+      <c r="I23">
+        <v>0.9815920966226858</v>
+      </c>
+      <c r="J23">
+        <v>1.016966660699337</v>
+      </c>
+      <c r="K23">
+        <v>0.9815920966226858</v>
+      </c>
+      <c r="L23">
         <v>1.005458290341542</v>
       </c>
-      <c r="F19">
-        <v>0.9815920966226858</v>
-      </c>
-      <c r="G19">
-        <v>1.035525848225541</v>
-      </c>
-      <c r="H19">
-        <v>0.9969288831100792</v>
-      </c>
-      <c r="I19">
-        <v>0.9984874946428898</v>
-      </c>
-      <c r="J19">
-        <v>1.016966660699337</v>
-      </c>
-      <c r="K19">
-        <v>0.9815920966226858</v>
-      </c>
-      <c r="L19">
-        <v>1.005458290341542</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.01121247552044</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.01121247552044</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.00645127805032</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.001339015887855</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.001339015887855</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9964022860715629</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9964022860715629</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.005826545607013</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9954006084214246</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="D3">
-        <v>1.016407778656226</v>
+        <v>0.9758495867896232</v>
       </c>
       <c r="E3">
-        <v>0.9949642703555495</v>
+        <v>0.9490212594380415</v>
       </c>
       <c r="F3">
-        <v>1.001322822287575</v>
+        <v>1.023070324841498</v>
       </c>
       <c r="G3">
-        <v>1.003867986746092</v>
+        <v>0.9858441337463973</v>
       </c>
       <c r="H3">
-        <v>0.9991332059929953</v>
+        <v>0.8911218319524506</v>
       </c>
       <c r="I3">
-        <v>0.9954006084214246</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="J3">
-        <v>0.9991332059929953</v>
+        <v>0.8911218319524506</v>
       </c>
       <c r="K3">
-        <v>0.9954006084214246</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="L3">
-        <v>1.003867986746092</v>
+        <v>0.9858441337463973</v>
       </c>
       <c r="M3">
-        <v>1.001500596369544</v>
+        <v>0.938482982849424</v>
       </c>
       <c r="N3">
-        <v>1.001500596369544</v>
+        <v>0.938482982849424</v>
       </c>
       <c r="O3">
-        <v>0.9993218210315455</v>
+        <v>0.9419957417122965</v>
       </c>
       <c r="P3">
-        <v>0.9994672670535039</v>
+        <v>0.9974277310470715</v>
       </c>
       <c r="Q3">
-        <v>0.9994672670535039</v>
+        <v>0.9974277310470715</v>
       </c>
       <c r="R3">
-        <v>0.998450602395484</v>
+        <v>1.026900105145895</v>
       </c>
       <c r="S3">
-        <v>0.998450602395484</v>
+        <v>1.026900105145895</v>
       </c>
       <c r="T3">
-        <v>1.001849445409977</v>
+        <v>0.9900373940350627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9911777093690577</v>
+        <v>1.106935983197913</v>
       </c>
       <c r="D4">
-        <v>1.031161976488954</v>
+        <v>0.9789090764316049</v>
       </c>
       <c r="E4">
-        <v>0.9903266645286525</v>
+        <v>0.9509095418412201</v>
       </c>
       <c r="F4">
-        <v>1.002632416418542</v>
+        <v>1.022622551397687</v>
       </c>
       <c r="G4">
-        <v>1.007544156624389</v>
+        <v>0.9885252857584784</v>
       </c>
       <c r="H4">
-        <v>0.9976045975595175</v>
+        <v>0.8931322659090604</v>
       </c>
       <c r="I4">
-        <v>0.9911777093690577</v>
+        <v>1.106935983197913</v>
       </c>
       <c r="J4">
-        <v>0.9976045975595175</v>
+        <v>0.8931322659090604</v>
       </c>
       <c r="K4">
-        <v>0.9911777093690577</v>
+        <v>1.106935983197913</v>
       </c>
       <c r="L4">
-        <v>1.007544156624389</v>
+        <v>0.9885252857584784</v>
       </c>
       <c r="M4">
-        <v>1.002574377091953</v>
+        <v>0.9408287758337694</v>
       </c>
       <c r="N4">
-        <v>1.002574377091953</v>
+        <v>0.9408287758337694</v>
       </c>
       <c r="O4">
-        <v>0.9984918062375195</v>
+        <v>0.9441890311695863</v>
       </c>
       <c r="P4">
-        <v>0.9987754878509879</v>
+        <v>0.9961978449551506</v>
       </c>
       <c r="Q4">
-        <v>0.9987754878509879</v>
+        <v>0.9961978449551504</v>
       </c>
       <c r="R4">
-        <v>0.9968760432305054</v>
+        <v>1.023882379515841</v>
       </c>
       <c r="S4">
-        <v>0.9968760432305054</v>
+        <v>1.023882379515841</v>
       </c>
       <c r="T4">
-        <v>1.003407920164852</v>
+        <v>0.990172450755994</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9843738631234213</v>
+        <v>1.132220933369272</v>
       </c>
       <c r="D5">
-        <v>1.059130541473014</v>
+        <v>0.9696982854663078</v>
       </c>
       <c r="E5">
-        <v>0.9813597273728195</v>
+        <v>0.9449935991374659</v>
       </c>
       <c r="F5">
-        <v>1.004983419947588</v>
+        <v>1.024153750404312</v>
       </c>
       <c r="G5">
-        <v>1.013882813979137</v>
+        <v>0.9806796269811318</v>
       </c>
       <c r="H5">
-        <v>0.9956918653324878</v>
+        <v>0.8861280439730477</v>
       </c>
       <c r="I5">
-        <v>0.9843738631234213</v>
+        <v>1.132220933369272</v>
       </c>
       <c r="J5">
-        <v>0.9956918653324878</v>
+        <v>0.8861280439730477</v>
       </c>
       <c r="K5">
-        <v>0.9843738631234213</v>
+        <v>1.132220933369272</v>
       </c>
       <c r="L5">
-        <v>1.013882813979137</v>
+        <v>0.9806796269811318</v>
       </c>
       <c r="M5">
-        <v>1.004787339655812</v>
+        <v>0.9334038354770897</v>
       </c>
       <c r="N5">
-        <v>1.004787339655812</v>
+        <v>0.9334038354770897</v>
       </c>
       <c r="O5">
-        <v>0.9969781355614814</v>
+        <v>0.9372670900305485</v>
       </c>
       <c r="P5">
-        <v>0.9979828474783486</v>
+        <v>0.9996762014411503</v>
       </c>
       <c r="Q5">
-        <v>0.9979828474783486</v>
+        <v>0.9996762014411504</v>
       </c>
       <c r="R5">
-        <v>0.9945806013896168</v>
+        <v>1.032812384423181</v>
       </c>
       <c r="S5">
-        <v>0.9945806013896168</v>
+        <v>1.032812384423181</v>
       </c>
       <c r="T5">
-        <v>1.006570371871411</v>
+        <v>0.9896457065552561</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9782040752536101</v>
+        <v>1.149177391306818</v>
       </c>
       <c r="D6">
-        <v>1.086231386598525</v>
+        <v>0.9635493195454549</v>
       </c>
       <c r="E6">
-        <v>0.9723886595822702</v>
+        <v>0.9407078202272733</v>
       </c>
       <c r="F6">
-        <v>1.00727940912792</v>
+        <v>1.025442493068182</v>
       </c>
       <c r="G6">
-        <v>1.020182341757642</v>
+        <v>0.9757710825000008</v>
       </c>
       <c r="H6">
-        <v>0.9939372477037227</v>
+        <v>0.8800671475681818</v>
       </c>
       <c r="I6">
-        <v>0.9782040752536101</v>
+        <v>1.149177391306818</v>
       </c>
       <c r="J6">
-        <v>0.9939372477037227</v>
+        <v>0.8800671475681818</v>
       </c>
       <c r="K6">
-        <v>0.9782040752536101</v>
+        <v>1.149177391306818</v>
       </c>
       <c r="L6">
-        <v>1.020182341757642</v>
+        <v>0.9757710825000008</v>
       </c>
       <c r="M6">
-        <v>1.007059794730682</v>
+        <v>0.9279191150340913</v>
       </c>
       <c r="N6">
-        <v>1.007059794730682</v>
+        <v>0.9279191150340913</v>
       </c>
       <c r="O6">
-        <v>0.9955027496812114</v>
+        <v>0.932182016765152</v>
       </c>
       <c r="P6">
-        <v>0.9974412215716582</v>
+        <v>1.001671873791667</v>
       </c>
       <c r="Q6">
-        <v>0.9974412215716582</v>
+        <v>1.001671873791667</v>
       </c>
       <c r="R6">
-        <v>0.9926319349921462</v>
+        <v>1.038548253170455</v>
       </c>
       <c r="S6">
-        <v>0.9926319349921462</v>
+        <v>1.038548253170455</v>
       </c>
       <c r="T6">
-        <v>1.009703853337282</v>
+        <v>0.9891192090359852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001161487393464</v>
+        <v>0.9356422279851591</v>
       </c>
       <c r="D7">
-        <v>0.999648003006993</v>
+        <v>0.3162776277217275</v>
       </c>
       <c r="E7">
-        <v>0.9995548435511542</v>
+        <v>1.49325306785745</v>
       </c>
       <c r="F7">
-        <v>1.000200473676888</v>
+        <v>0.7633038459821432</v>
       </c>
       <c r="G7">
-        <v>0.9998147899810029</v>
+        <v>0.6923357388304772</v>
       </c>
       <c r="H7">
-        <v>0.9990191406540014</v>
+        <v>1.943383829328701</v>
       </c>
       <c r="I7">
-        <v>1.001161487393464</v>
+        <v>0.9356422279851591</v>
       </c>
       <c r="J7">
-        <v>0.9990191406540014</v>
+        <v>1.943383829328701</v>
       </c>
       <c r="K7">
-        <v>1.001161487393464</v>
+        <v>0.9356422279851591</v>
       </c>
       <c r="L7">
-        <v>0.9998147899810029</v>
+        <v>0.6923357388304772</v>
       </c>
       <c r="M7">
-        <v>0.9994169653175022</v>
+        <v>1.317859784079589</v>
       </c>
       <c r="N7">
-        <v>0.9994169653175022</v>
+        <v>1.317859784079589</v>
       </c>
       <c r="O7">
-        <v>0.9994629247287196</v>
+        <v>1.376324212005543</v>
       </c>
       <c r="P7">
-        <v>0.9999984726761563</v>
+        <v>1.190453932048112</v>
       </c>
       <c r="Q7">
-        <v>0.9999984726761563</v>
+        <v>1.190453932048112</v>
       </c>
       <c r="R7">
-        <v>1.000289226355483</v>
+        <v>1.126751006032374</v>
       </c>
       <c r="S7">
-        <v>1.000289226355483</v>
+        <v>1.126751006032374</v>
       </c>
       <c r="T7">
-        <v>0.9998997897105838</v>
+        <v>1.024032722950943</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002992145120057</v>
+        <v>0.941506407375968</v>
       </c>
       <c r="D8">
-        <v>0.9988595500957709</v>
+        <v>0.3182560386092583</v>
       </c>
       <c r="E8">
-        <v>0.9989682493993196</v>
+        <v>1.488502108589953</v>
       </c>
       <c r="F8">
-        <v>1.000470796067003</v>
+        <v>0.7655166793378652</v>
       </c>
       <c r="G8">
-        <v>0.9994616799029203</v>
+        <v>0.6930968999276081</v>
       </c>
       <c r="H8">
-        <v>0.9976470960848931</v>
+        <v>1.933744648452394</v>
       </c>
       <c r="I8">
-        <v>1.002992145120057</v>
+        <v>0.941506407375968</v>
       </c>
       <c r="J8">
-        <v>0.9976470960848931</v>
+        <v>1.933744648452394</v>
       </c>
       <c r="K8">
-        <v>1.002992145120057</v>
+        <v>0.941506407375968</v>
       </c>
       <c r="L8">
-        <v>0.9994616799029203</v>
+        <v>0.6930968999276081</v>
       </c>
       <c r="M8">
-        <v>0.9985543879939067</v>
+        <v>1.313420774190001</v>
       </c>
       <c r="N8">
-        <v>0.9985543879939067</v>
+        <v>1.313420774190001</v>
       </c>
       <c r="O8">
-        <v>0.998692341795711</v>
+        <v>1.371781218989985</v>
       </c>
       <c r="P8">
-        <v>1.00003364036929</v>
+        <v>1.189449318585323</v>
       </c>
       <c r="Q8">
-        <v>1.00003364036929</v>
+        <v>1.189449318585323</v>
       </c>
       <c r="R8">
-        <v>1.000773266556982</v>
+        <v>1.127463590782984</v>
       </c>
       <c r="S8">
-        <v>1.000773266556982</v>
+        <v>1.127463590782984</v>
       </c>
       <c r="T8">
-        <v>0.9997332527783271</v>
+        <v>1.023437130382174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004476490170248</v>
+        <v>0.9459601140346497</v>
       </c>
       <c r="D9">
-        <v>0.9986126836080156</v>
+        <v>0.3197508038025258</v>
       </c>
       <c r="E9">
-        <v>0.998277507768574</v>
+        <v>1.484939840171837</v>
       </c>
       <c r="F9">
-        <v>1.000785154449024</v>
+        <v>0.7671528284470031</v>
       </c>
       <c r="G9">
-        <v>0.9992956202530529</v>
+        <v>0.6936163248836419</v>
       </c>
       <c r="H9">
-        <v>0.9961784923004164</v>
+        <v>1.926732667783188</v>
       </c>
       <c r="I9">
-        <v>1.004476490170248</v>
+        <v>0.9459601140346497</v>
       </c>
       <c r="J9">
-        <v>0.9961784923004164</v>
+        <v>1.926732667783188</v>
       </c>
       <c r="K9">
-        <v>1.004476490170248</v>
+        <v>0.9459601140346497</v>
       </c>
       <c r="L9">
-        <v>0.9992956202530529</v>
+        <v>0.6936163248836419</v>
       </c>
       <c r="M9">
-        <v>0.9977370562767347</v>
+        <v>1.310174496333415</v>
       </c>
       <c r="N9">
-        <v>0.9977370562767347</v>
+        <v>1.310174496333415</v>
       </c>
       <c r="O9">
-        <v>0.9979172067740145</v>
+        <v>1.368429610946222</v>
       </c>
       <c r="P9">
-        <v>0.9999835342412391</v>
+        <v>1.188769702233826</v>
       </c>
       <c r="Q9">
-        <v>0.9999835342412391</v>
+        <v>1.188769702233826</v>
       </c>
       <c r="R9">
-        <v>1.001106773223491</v>
+        <v>1.128067305184032</v>
       </c>
       <c r="S9">
-        <v>1.001106773223491</v>
+        <v>1.128067305184032</v>
       </c>
       <c r="T9">
-        <v>0.9996043247582219</v>
+        <v>1.023025429853808</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.009225360900491</v>
+        <v>0.9624159602437856</v>
       </c>
       <c r="D10">
-        <v>0.9969859189676863</v>
+        <v>0.3252782942737464</v>
       </c>
       <c r="E10">
-        <v>0.9965231868959028</v>
+        <v>1.471752447232822</v>
       </c>
       <c r="F10">
-        <v>1.001587105011161</v>
+        <v>0.7732232002830829</v>
       </c>
       <c r="G10">
-        <v>0.9985191295345618</v>
+        <v>0.6955693189333395</v>
       </c>
       <c r="H10">
-        <v>0.9922314808290144</v>
+        <v>1.900637879745713</v>
       </c>
       <c r="I10">
-        <v>1.009225360900491</v>
+        <v>0.9624159602437856</v>
       </c>
       <c r="J10">
-        <v>0.9922314808290144</v>
+        <v>1.900637879745713</v>
       </c>
       <c r="K10">
-        <v>1.009225360900491</v>
+        <v>0.9624159602437856</v>
       </c>
       <c r="L10">
-        <v>0.9985191295345618</v>
+        <v>0.6955693189333395</v>
       </c>
       <c r="M10">
-        <v>0.9953753051817881</v>
+        <v>1.298103599339526</v>
       </c>
       <c r="N10">
-        <v>0.9953753051817881</v>
+        <v>1.298103599339526</v>
       </c>
       <c r="O10">
-        <v>0.9957579324198264</v>
+        <v>1.355986548637292</v>
       </c>
       <c r="P10">
-        <v>0.9999919904213556</v>
+        <v>1.186207719640946</v>
       </c>
       <c r="Q10">
-        <v>0.9999919904213556</v>
+        <v>1.186207719640946</v>
       </c>
       <c r="R10">
-        <v>1.002300333041139</v>
+        <v>1.130259779791656</v>
       </c>
       <c r="S10">
-        <v>1.002300333041139</v>
+        <v>1.130259779791656</v>
       </c>
       <c r="T10">
-        <v>0.9991786970231362</v>
+        <v>1.021479516785415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.016238053354957</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="D11">
-        <v>0.9948182287564317</v>
+        <v>1.013792922177559</v>
       </c>
       <c r="E11">
-        <v>0.9937428092305389</v>
+        <v>0.9967062548095341</v>
       </c>
       <c r="F11">
-        <v>1.002873259990368</v>
+        <v>1.000597012393315</v>
       </c>
       <c r="G11">
-        <v>0.9975024557554489</v>
+        <v>1.002946112493005</v>
       </c>
       <c r="H11">
-        <v>0.9860452313381999</v>
+        <v>1.001476203662625</v>
       </c>
       <c r="I11">
-        <v>1.016238053354957</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="J11">
-        <v>0.9860452313381999</v>
+        <v>1.001476203662625</v>
       </c>
       <c r="K11">
-        <v>1.016238053354957</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="L11">
-        <v>0.9975024557554489</v>
+        <v>1.002946112493005</v>
       </c>
       <c r="M11">
-        <v>0.9917738435468244</v>
+        <v>1.002211158077815</v>
       </c>
       <c r="N11">
-        <v>0.9917738435468244</v>
+        <v>1.002211158077815</v>
       </c>
       <c r="O11">
-        <v>0.992430165441396</v>
+        <v>1.000376190321721</v>
       </c>
       <c r="P11">
-        <v>0.9999285801495353</v>
+        <v>0.9998271545891191</v>
       </c>
       <c r="Q11">
-        <v>0.9999285801495353</v>
+        <v>0.9998271545891191</v>
       </c>
       <c r="R11">
-        <v>1.004005948450891</v>
+        <v>0.9986351528447711</v>
       </c>
       <c r="S11">
-        <v>1.004005948450891</v>
+        <v>0.9986351528447711</v>
       </c>
       <c r="T11">
-        <v>0.9985366730709909</v>
+        <v>1.001762942191294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9422085480144063</v>
+        <v>0.9973154314084499</v>
       </c>
       <c r="D12">
-        <v>1.012390764726488</v>
+        <v>1.005203837720101</v>
       </c>
       <c r="E12">
-        <v>0.9974542226888108</v>
+        <v>0.9997295170093968</v>
       </c>
       <c r="F12">
-        <v>1.011593383523964</v>
+        <v>0.9995745971680619</v>
       </c>
       <c r="G12">
-        <v>1.039747067715987</v>
+        <v>1.000555305166504</v>
       </c>
       <c r="H12">
-        <v>0.9318562016855163</v>
+        <v>1.003969332972709</v>
       </c>
       <c r="I12">
-        <v>0.9422085480144063</v>
+        <v>0.9973154314084499</v>
       </c>
       <c r="J12">
-        <v>0.9318562016855163</v>
+        <v>1.003969332972709</v>
       </c>
       <c r="K12">
-        <v>0.9422085480144063</v>
+        <v>0.9973154314084499</v>
       </c>
       <c r="L12">
-        <v>1.039747067715987</v>
+        <v>1.000555305166504</v>
       </c>
       <c r="M12">
-        <v>0.9858016347007517</v>
+        <v>1.002262319069606</v>
       </c>
       <c r="N12">
-        <v>0.9858016347007517</v>
+        <v>1.002262319069606</v>
       </c>
       <c r="O12">
-        <v>0.9896858306967714</v>
+        <v>1.001418051716203</v>
       </c>
       <c r="P12">
-        <v>0.9712706058053032</v>
+        <v>1.000613356515888</v>
       </c>
       <c r="Q12">
-        <v>0.9712706058053033</v>
+        <v>1.000613356515888</v>
       </c>
       <c r="R12">
-        <v>0.9640050913575791</v>
+        <v>0.9997888752390282</v>
       </c>
       <c r="S12">
-        <v>0.9640050913575791</v>
+        <v>0.9997888752390282</v>
       </c>
       <c r="T12">
-        <v>0.989208364725862</v>
+        <v>1.001058003574204</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.059548244205389</v>
+        <v>0.99042684502657</v>
       </c>
       <c r="D13">
-        <v>1.02319818206806</v>
+        <v>1.021443048672628</v>
       </c>
       <c r="E13">
-        <v>0.9928450615510304</v>
+        <v>0.9972280588193956</v>
       </c>
       <c r="F13">
-        <v>0.9890386921676247</v>
+        <v>0.999336006311638</v>
       </c>
       <c r="G13">
-        <v>0.9601667937851361</v>
+        <v>1.003166391458056</v>
       </c>
       <c r="H13">
-        <v>1.067964252920152</v>
+        <v>1.010715626786628</v>
       </c>
       <c r="I13">
-        <v>1.059548244205389</v>
+        <v>0.99042684502657</v>
       </c>
       <c r="J13">
-        <v>1.067964252920152</v>
+        <v>1.010715626786628</v>
       </c>
       <c r="K13">
-        <v>1.059548244205389</v>
+        <v>0.99042684502657</v>
       </c>
       <c r="L13">
-        <v>0.9601667937851361</v>
+        <v>1.003166391458056</v>
       </c>
       <c r="M13">
-        <v>1.014065523352644</v>
+        <v>1.006941009122342</v>
       </c>
       <c r="N13">
-        <v>1.014065523352644</v>
+        <v>1.006941009122342</v>
       </c>
       <c r="O13">
-        <v>1.00699203608544</v>
+        <v>1.00370335902136</v>
       </c>
       <c r="P13">
-        <v>1.029226430303559</v>
+        <v>1.001436287757085</v>
       </c>
       <c r="Q13">
-        <v>1.029226430303559</v>
+        <v>1.001436287757085</v>
       </c>
       <c r="R13">
-        <v>1.036806883779016</v>
+        <v>0.998683927074456</v>
       </c>
       <c r="S13">
-        <v>1.036806883779016</v>
+        <v>0.998683927074456</v>
       </c>
       <c r="T13">
-        <v>1.015460204449565</v>
+        <v>1.003719329512486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8731923049019394</v>
+        <v>0.9881825213838138</v>
       </c>
       <c r="D14">
-        <v>2.273757410017423</v>
+        <v>1.044259425656608</v>
       </c>
       <c r="E14">
-        <v>0.3739415155053741</v>
+        <v>0.9860548144803406</v>
       </c>
       <c r="F14">
-        <v>1.254853269454525</v>
+        <v>1.003754306815401</v>
       </c>
       <c r="G14">
-        <v>1.411107354708371</v>
+        <v>1.010434834444366</v>
       </c>
       <c r="H14">
-        <v>0.1398369913072594</v>
+        <v>0.9967506169209132</v>
       </c>
       <c r="I14">
-        <v>0.8731923049019394</v>
+        <v>0.9881825213838138</v>
       </c>
       <c r="J14">
-        <v>0.1398369913072594</v>
+        <v>0.9967506169209132</v>
       </c>
       <c r="K14">
-        <v>0.8731923049019394</v>
+        <v>0.9881825213838138</v>
       </c>
       <c r="L14">
-        <v>1.411107354708371</v>
+        <v>1.010434834444366</v>
       </c>
       <c r="M14">
-        <v>0.7754721730078151</v>
+        <v>1.00359272568264</v>
       </c>
       <c r="N14">
-        <v>0.7754721730078151</v>
+        <v>1.00359272568264</v>
       </c>
       <c r="O14">
-        <v>0.6416286205070014</v>
+        <v>0.9977467552818733</v>
       </c>
       <c r="P14">
-        <v>0.8080455503058565</v>
+        <v>0.9984559909163643</v>
       </c>
       <c r="Q14">
-        <v>0.8080455503058567</v>
+        <v>0.9984559909163644</v>
       </c>
       <c r="R14">
-        <v>0.8243322389548773</v>
+        <v>0.9958876235332268</v>
       </c>
       <c r="S14">
-        <v>0.8243322389548773</v>
+        <v>0.9958876235332268</v>
       </c>
       <c r="T14">
-        <v>1.054448140982482</v>
+        <v>1.004906086616907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.236171008120947</v>
+        <v>0.9954006084214246</v>
       </c>
       <c r="D15">
-        <v>0.9754516980295287</v>
+        <v>1.016407778656226</v>
       </c>
       <c r="E15">
-        <v>0.8176698907503707</v>
+        <v>0.9949642703555495</v>
       </c>
       <c r="F15">
-        <v>1.102555332185788</v>
+        <v>1.001322822287575</v>
       </c>
       <c r="G15">
-        <v>1.04786352455284</v>
+        <v>1.003867986746092</v>
       </c>
       <c r="H15">
-        <v>0.539790818061379</v>
+        <v>0.9991332059929953</v>
       </c>
       <c r="I15">
-        <v>1.236171008120947</v>
+        <v>0.9954006084214246</v>
       </c>
       <c r="J15">
-        <v>0.539790818061379</v>
+        <v>0.9991332059929953</v>
       </c>
       <c r="K15">
-        <v>1.236171008120947</v>
+        <v>0.9954006084214246</v>
       </c>
       <c r="L15">
-        <v>1.04786352455284</v>
+        <v>1.003867986746092</v>
       </c>
       <c r="M15">
-        <v>0.7938271713071092</v>
+        <v>1.001500596369544</v>
       </c>
       <c r="N15">
-        <v>0.7938271713071092</v>
+        <v>1.001500596369544</v>
       </c>
       <c r="O15">
-        <v>0.8017747444548631</v>
+        <v>0.9993218210315455</v>
       </c>
       <c r="P15">
-        <v>0.9412751169117217</v>
+        <v>0.9994672670535039</v>
       </c>
       <c r="Q15">
-        <v>0.9412751169117218</v>
+        <v>0.9994672670535039</v>
       </c>
       <c r="R15">
-        <v>1.014999089714028</v>
+        <v>0.998450602395484</v>
       </c>
       <c r="S15">
-        <v>1.014999089714028</v>
+        <v>0.998450602395484</v>
       </c>
       <c r="T15">
-        <v>0.9532503786168088</v>
+        <v>1.001849445409977</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9245606491268805</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="D16">
-        <v>1.296775908116499</v>
+        <v>1.031161976488954</v>
       </c>
       <c r="E16">
-        <v>0.9021963301154684</v>
+        <v>0.9903266645286525</v>
       </c>
       <c r="F16">
-        <v>1.028051375221237</v>
+        <v>1.002632416418542</v>
       </c>
       <c r="G16">
-        <v>1.072291673446502</v>
+        <v>1.007544156624389</v>
       </c>
       <c r="H16">
-        <v>0.9629651187201463</v>
+        <v>0.9976045975595175</v>
       </c>
       <c r="I16">
-        <v>0.9245606491268805</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="J16">
-        <v>0.9629651187201463</v>
+        <v>0.9976045975595175</v>
       </c>
       <c r="K16">
-        <v>0.9245606491268805</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="L16">
-        <v>1.072291673446502</v>
+        <v>1.007544156624389</v>
       </c>
       <c r="M16">
-        <v>1.017628396083324</v>
+        <v>1.002574377091953</v>
       </c>
       <c r="N16">
-        <v>1.017628396083324</v>
+        <v>1.002574377091953</v>
       </c>
       <c r="O16">
-        <v>0.9791510407607055</v>
+        <v>0.9984918062375195</v>
       </c>
       <c r="P16">
-        <v>0.9866058137645096</v>
+        <v>0.9987754878509879</v>
       </c>
       <c r="Q16">
-        <v>0.9866058137645096</v>
+        <v>0.9987754878509879</v>
       </c>
       <c r="R16">
-        <v>0.9710945226051024</v>
+        <v>0.9968760432305054</v>
       </c>
       <c r="S16">
-        <v>0.9710945226051024</v>
+        <v>0.9968760432305054</v>
       </c>
       <c r="T16">
-        <v>1.031140175791122</v>
+        <v>1.003407920164852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9834348638521659</v>
+        <v>0.9843738631234213</v>
       </c>
       <c r="D17">
-        <v>1.191925147216256</v>
+        <v>1.059130541473014</v>
       </c>
       <c r="E17">
-        <v>0.9185627809530909</v>
+        <v>0.9813597273728195</v>
       </c>
       <c r="F17">
-        <v>1.026297565350673</v>
+        <v>1.004983419947588</v>
       </c>
       <c r="G17">
-        <v>1.045203989164202</v>
+        <v>1.013882813979137</v>
       </c>
       <c r="H17">
-        <v>0.9394865540089953</v>
+        <v>0.9956918653324878</v>
       </c>
       <c r="I17">
-        <v>0.9834348638521659</v>
+        <v>0.9843738631234213</v>
       </c>
       <c r="J17">
-        <v>0.9394865540089953</v>
+        <v>0.9956918653324878</v>
       </c>
       <c r="K17">
-        <v>0.9834348638521659</v>
+        <v>0.9843738631234213</v>
       </c>
       <c r="L17">
-        <v>1.045203989164202</v>
+        <v>1.013882813979137</v>
       </c>
       <c r="M17">
-        <v>0.9923452715865988</v>
+        <v>1.004787339655812</v>
       </c>
       <c r="N17">
-        <v>0.9923452715865988</v>
+        <v>1.004787339655812</v>
       </c>
       <c r="O17">
-        <v>0.9677511080420961</v>
+        <v>0.9969781355614814</v>
       </c>
       <c r="P17">
-        <v>0.9893751356751211</v>
+        <v>0.9979828474783486</v>
       </c>
       <c r="Q17">
-        <v>0.9893751356751213</v>
+        <v>0.9979828474783486</v>
       </c>
       <c r="R17">
-        <v>0.9878900677193825</v>
+        <v>0.9945806013896168</v>
       </c>
       <c r="S17">
-        <v>0.9878900677193825</v>
+        <v>0.9945806013896168</v>
       </c>
       <c r="T17">
-        <v>1.017485150090897</v>
+        <v>1.006570371871411</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.100099438437108</v>
+        <v>0.9782040752536101</v>
       </c>
       <c r="D18">
-        <v>0.9831891506506502</v>
+        <v>1.086231386598525</v>
       </c>
       <c r="E18">
-        <v>0.9514190674240828</v>
+        <v>0.9723886595822702</v>
       </c>
       <c r="F18">
-        <v>1.022696475313899</v>
+        <v>1.00727940912792</v>
       </c>
       <c r="G18">
-        <v>0.9913388548978033</v>
+        <v>1.020182341757642</v>
       </c>
       <c r="H18">
-        <v>0.8932172014432441</v>
+        <v>0.9939372477037227</v>
       </c>
       <c r="I18">
-        <v>1.100099438437108</v>
+        <v>0.9782040752536101</v>
       </c>
       <c r="J18">
-        <v>0.8932172014432441</v>
+        <v>0.9939372477037227</v>
       </c>
       <c r="K18">
-        <v>1.100099438437108</v>
+        <v>0.9782040752536101</v>
       </c>
       <c r="L18">
-        <v>0.9913388548978033</v>
+        <v>1.020182341757642</v>
       </c>
       <c r="M18">
-        <v>0.9422780281705236</v>
+        <v>1.007059794730682</v>
       </c>
       <c r="N18">
-        <v>0.9422780281705236</v>
+        <v>1.007059794730682</v>
       </c>
       <c r="O18">
-        <v>0.9453250412550434</v>
+        <v>0.9955027496812114</v>
       </c>
       <c r="P18">
-        <v>0.9948851649260518</v>
+        <v>0.9974412215716582</v>
       </c>
       <c r="Q18">
-        <v>0.9948851649260518</v>
+        <v>0.9974412215716582</v>
       </c>
       <c r="R18">
-        <v>1.021188733303816</v>
+        <v>0.9926319349921462</v>
       </c>
       <c r="S18">
-        <v>1.021188733303816</v>
+        <v>0.9926319349921462</v>
       </c>
       <c r="T18">
-        <v>0.9903266980277978</v>
+        <v>1.009703853337282</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.134906186764854</v>
+        <v>1.001161487393464</v>
       </c>
       <c r="D19">
-        <v>0.9607853864515704</v>
+        <v>0.999648003006993</v>
       </c>
       <c r="E19">
-        <v>0.9479177195226753</v>
+        <v>0.9995548435511542</v>
       </c>
       <c r="F19">
-        <v>1.02321696326605</v>
+        <v>1.000200473676888</v>
       </c>
       <c r="G19">
-        <v>0.9779272420823603</v>
+        <v>0.9998147899810029</v>
       </c>
       <c r="H19">
-        <v>0.8892174754869826</v>
+        <v>0.9990191406540014</v>
       </c>
       <c r="I19">
-        <v>1.134906186764854</v>
+        <v>1.001161487393464</v>
       </c>
       <c r="J19">
-        <v>0.8892174754869826</v>
+        <v>0.9990191406540014</v>
       </c>
       <c r="K19">
-        <v>1.134906186764854</v>
+        <v>1.001161487393464</v>
       </c>
       <c r="L19">
-        <v>0.9779272420823603</v>
+        <v>0.9998147899810029</v>
       </c>
       <c r="M19">
-        <v>0.9335723587846714</v>
+        <v>0.9994169653175022</v>
       </c>
       <c r="N19">
-        <v>0.9335723587846714</v>
+        <v>0.9994169653175022</v>
       </c>
       <c r="O19">
-        <v>0.9383541456973393</v>
+        <v>0.9994629247287196</v>
       </c>
       <c r="P19">
-        <v>1.000683634778066</v>
+        <v>0.9999984726761563</v>
       </c>
       <c r="Q19">
-        <v>1.000683634778066</v>
+        <v>0.9999984726761563</v>
       </c>
       <c r="R19">
-        <v>1.034239272774763</v>
+        <v>1.000289226355483</v>
       </c>
       <c r="S19">
-        <v>1.034239272774763</v>
+        <v>1.000289226355483</v>
       </c>
       <c r="T19">
-        <v>0.9889951622624155</v>
+        <v>0.9998997897105838</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9995998971352509</v>
+        <v>1.002992145120057</v>
       </c>
       <c r="D20">
-        <v>1.001127443326782</v>
+        <v>0.9988595500957709</v>
       </c>
       <c r="E20">
-        <v>0.9999836861461904</v>
+        <v>0.9989682493993196</v>
       </c>
       <c r="F20">
-        <v>0.9998536901028192</v>
+        <v>1.000470796067003</v>
       </c>
       <c r="G20">
-        <v>0.9999604246063594</v>
+        <v>0.9994616799029203</v>
       </c>
       <c r="H20">
-        <v>1.001007354090671</v>
+        <v>0.9976470960848931</v>
       </c>
       <c r="I20">
-        <v>0.9995998971352509</v>
+        <v>1.002992145120057</v>
       </c>
       <c r="J20">
-        <v>1.001007354090671</v>
+        <v>0.9976470960848931</v>
       </c>
       <c r="K20">
-        <v>0.9995998971352509</v>
+        <v>1.002992145120057</v>
       </c>
       <c r="L20">
-        <v>0.9999604246063594</v>
+        <v>0.9994616799029203</v>
       </c>
       <c r="M20">
-        <v>1.000483889348515</v>
+        <v>0.9985543879939067</v>
       </c>
       <c r="N20">
-        <v>1.000483889348515</v>
+        <v>0.9985543879939067</v>
       </c>
       <c r="O20">
-        <v>1.00031715494774</v>
+        <v>0.998692341795711</v>
       </c>
       <c r="P20">
-        <v>1.000189225277427</v>
+        <v>1.00003364036929</v>
       </c>
       <c r="Q20">
-        <v>1.000189225277427</v>
+        <v>1.00003364036929</v>
       </c>
       <c r="R20">
-        <v>1.000041893241883</v>
+        <v>1.000773266556982</v>
       </c>
       <c r="S20">
-        <v>1.000041893241883</v>
+        <v>1.000773266556982</v>
       </c>
       <c r="T20">
-        <v>1.000255415901346</v>
+        <v>0.9997332527783271</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.002507886988702</v>
+        <v>1.004476490170248</v>
       </c>
       <c r="D21">
-        <v>0.9975293563510699</v>
+        <v>0.9986126836080156</v>
       </c>
       <c r="E21">
-        <v>0.9994437631193687</v>
+        <v>0.998277507768574</v>
       </c>
       <c r="F21">
-        <v>1.000462184973712</v>
+        <v>1.000785154449024</v>
       </c>
       <c r="G21">
-        <v>0.9996314345506389</v>
+        <v>0.9992956202530529</v>
       </c>
       <c r="H21">
-        <v>0.9973544264949608</v>
+        <v>0.9961784923004164</v>
       </c>
       <c r="I21">
-        <v>1.002507886988702</v>
+        <v>1.004476490170248</v>
       </c>
       <c r="J21">
-        <v>0.9973544264949608</v>
+        <v>0.9961784923004164</v>
       </c>
       <c r="K21">
-        <v>1.002507886988702</v>
+        <v>1.004476490170248</v>
       </c>
       <c r="L21">
-        <v>0.9996314345506389</v>
+        <v>0.9992956202530529</v>
       </c>
       <c r="M21">
-        <v>0.9984929305227999</v>
+        <v>0.9977370562767347</v>
       </c>
       <c r="N21">
-        <v>0.9984929305227999</v>
+        <v>0.9977370562767347</v>
       </c>
       <c r="O21">
-        <v>0.9988098747216562</v>
+        <v>0.9979172067740145</v>
       </c>
       <c r="P21">
-        <v>0.9998312493447674</v>
+        <v>0.9999835342412391</v>
       </c>
       <c r="Q21">
-        <v>0.9998312493447673</v>
+        <v>0.9999835342412391</v>
       </c>
       <c r="R21">
-        <v>1.000500408755751</v>
+        <v>1.001106773223491</v>
       </c>
       <c r="S21">
-        <v>1.000500408755751</v>
+        <v>1.001106773223491</v>
       </c>
       <c r="T21">
-        <v>0.9994881754130754</v>
+        <v>0.9996043247582219</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9956544766791313</v>
+        <v>1.009225360900491</v>
       </c>
       <c r="D22">
-        <v>1.00980838366082</v>
+        <v>0.9969859189676863</v>
       </c>
       <c r="E22">
-        <v>0.9985668291630947</v>
+        <v>0.9965231868959028</v>
       </c>
       <c r="F22">
-        <v>0.9998900165929933</v>
+        <v>1.001587105011161</v>
       </c>
       <c r="G22">
-        <v>1.001699551507158</v>
+        <v>0.9985191295345618</v>
       </c>
       <c r="H22">
-        <v>1.003218111259674</v>
+        <v>0.9922314808290144</v>
       </c>
       <c r="I22">
-        <v>0.9956544766791313</v>
+        <v>1.009225360900491</v>
       </c>
       <c r="J22">
-        <v>1.003218111259674</v>
+        <v>0.9922314808290144</v>
       </c>
       <c r="K22">
-        <v>0.9956544766791313</v>
+        <v>1.009225360900491</v>
       </c>
       <c r="L22">
-        <v>1.001699551507158</v>
+        <v>0.9985191295345618</v>
       </c>
       <c r="M22">
-        <v>1.002458831383416</v>
+        <v>0.9953753051817881</v>
       </c>
       <c r="N22">
-        <v>1.002458831383416</v>
+        <v>0.9953753051817881</v>
       </c>
       <c r="O22">
-        <v>1.001161497309975</v>
+        <v>0.9957579324198264</v>
       </c>
       <c r="P22">
-        <v>1.000190713148654</v>
+        <v>0.9999919904213556</v>
       </c>
       <c r="Q22">
-        <v>1.000190713148654</v>
+        <v>0.9999919904213556</v>
       </c>
       <c r="R22">
-        <v>0.9990566540312735</v>
+        <v>1.002300333041139</v>
       </c>
       <c r="S22">
-        <v>0.9990566540312735</v>
+        <v>1.002300333041139</v>
       </c>
       <c r="T22">
-        <v>1.001472894810479</v>
+        <v>0.9991786970231362</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.016238053354957</v>
+      </c>
+      <c r="D23">
+        <v>0.9948182287564317</v>
+      </c>
+      <c r="E23">
+        <v>0.9937428092305389</v>
+      </c>
+      <c r="F23">
+        <v>1.002873259990368</v>
+      </c>
+      <c r="G23">
+        <v>0.9975024557554489</v>
+      </c>
+      <c r="H23">
+        <v>0.9860452313381999</v>
+      </c>
+      <c r="I23">
+        <v>1.016238053354957</v>
+      </c>
+      <c r="J23">
+        <v>0.9860452313381999</v>
+      </c>
+      <c r="K23">
+        <v>1.016238053354957</v>
+      </c>
+      <c r="L23">
+        <v>0.9975024557554489</v>
+      </c>
+      <c r="M23">
+        <v>0.9917738435468244</v>
+      </c>
+      <c r="N23">
+        <v>0.9917738435468244</v>
+      </c>
+      <c r="O23">
+        <v>0.992430165441396</v>
+      </c>
+      <c r="P23">
+        <v>0.9999285801495353</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999285801495353</v>
+      </c>
+      <c r="R23">
+        <v>1.004005948450891</v>
+      </c>
+      <c r="S23">
+        <v>1.004005948450891</v>
+      </c>
+      <c r="T23">
+        <v>0.9985366730709909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9422085480144063</v>
+      </c>
+      <c r="D24">
+        <v>1.012390764726488</v>
+      </c>
+      <c r="E24">
+        <v>0.9974542226888108</v>
+      </c>
+      <c r="F24">
+        <v>1.011593383523964</v>
+      </c>
+      <c r="G24">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="H24">
+        <v>0.9318562016855163</v>
+      </c>
+      <c r="I24">
+        <v>0.9422085480144063</v>
+      </c>
+      <c r="J24">
+        <v>0.9318562016855163</v>
+      </c>
+      <c r="K24">
+        <v>0.9422085480144063</v>
+      </c>
+      <c r="L24">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="M24">
+        <v>0.9858016347007517</v>
+      </c>
+      <c r="N24">
+        <v>0.9858016347007517</v>
+      </c>
+      <c r="O24">
+        <v>0.9896858306967714</v>
+      </c>
+      <c r="P24">
+        <v>0.9712706058053032</v>
+      </c>
+      <c r="Q24">
+        <v>0.9712706058053033</v>
+      </c>
+      <c r="R24">
+        <v>0.9640050913575791</v>
+      </c>
+      <c r="S24">
+        <v>0.9640050913575791</v>
+      </c>
+      <c r="T24">
+        <v>0.989208364725862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="D25">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="E25">
+        <v>0.9928450615510304</v>
+      </c>
+      <c r="F25">
+        <v>0.9890386921676247</v>
+      </c>
+      <c r="G25">
+        <v>0.9601667937851361</v>
+      </c>
+      <c r="H25">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="I25">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="J25">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="K25">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="L25">
+        <v>0.9601667937851361</v>
+      </c>
+      <c r="M25">
+        <v>1.014065523352644</v>
+      </c>
+      <c r="N25">
+        <v>1.014065523352644</v>
+      </c>
+      <c r="O25">
+        <v>1.00699203608544</v>
+      </c>
+      <c r="P25">
+        <v>1.029226430303559</v>
+      </c>
+      <c r="Q25">
+        <v>1.029226430303559</v>
+      </c>
+      <c r="R25">
+        <v>1.036806883779016</v>
+      </c>
+      <c r="S25">
+        <v>1.036806883779016</v>
+      </c>
+      <c r="T25">
+        <v>1.015460204449565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="D26">
+        <v>2.273757410017423</v>
+      </c>
+      <c r="E26">
+        <v>0.3739415155053741</v>
+      </c>
+      <c r="F26">
+        <v>1.254853269454525</v>
+      </c>
+      <c r="G26">
+        <v>1.411107354708371</v>
+      </c>
+      <c r="H26">
+        <v>0.1398369913072594</v>
+      </c>
+      <c r="I26">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="J26">
+        <v>0.1398369913072594</v>
+      </c>
+      <c r="K26">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="L26">
+        <v>1.411107354708371</v>
+      </c>
+      <c r="M26">
+        <v>0.7754721730078151</v>
+      </c>
+      <c r="N26">
+        <v>0.7754721730078151</v>
+      </c>
+      <c r="O26">
+        <v>0.6416286205070014</v>
+      </c>
+      <c r="P26">
+        <v>0.8080455503058565</v>
+      </c>
+      <c r="Q26">
+        <v>0.8080455503058567</v>
+      </c>
+      <c r="R26">
+        <v>0.8243322389548773</v>
+      </c>
+      <c r="S26">
+        <v>0.8243322389548773</v>
+      </c>
+      <c r="T26">
+        <v>1.054448140982482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="D27">
+        <v>0.9754516980295287</v>
+      </c>
+      <c r="E27">
+        <v>0.8176698907503707</v>
+      </c>
+      <c r="F27">
+        <v>1.102555332185788</v>
+      </c>
+      <c r="G27">
+        <v>1.04786352455284</v>
+      </c>
+      <c r="H27">
+        <v>0.539790818061379</v>
+      </c>
+      <c r="I27">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="J27">
+        <v>0.539790818061379</v>
+      </c>
+      <c r="K27">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="L27">
+        <v>1.04786352455284</v>
+      </c>
+      <c r="M27">
+        <v>0.7938271713071092</v>
+      </c>
+      <c r="N27">
+        <v>0.7938271713071092</v>
+      </c>
+      <c r="O27">
+        <v>0.8017747444548631</v>
+      </c>
+      <c r="P27">
+        <v>0.9412751169117217</v>
+      </c>
+      <c r="Q27">
+        <v>0.9412751169117218</v>
+      </c>
+      <c r="R27">
+        <v>1.014999089714028</v>
+      </c>
+      <c r="S27">
+        <v>1.014999089714028</v>
+      </c>
+      <c r="T27">
+        <v>0.9532503786168088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9245606491268805</v>
+      </c>
+      <c r="D28">
+        <v>1.296775908116499</v>
+      </c>
+      <c r="E28">
+        <v>0.9021963301154684</v>
+      </c>
+      <c r="F28">
+        <v>1.028051375221237</v>
+      </c>
+      <c r="G28">
+        <v>1.072291673446502</v>
+      </c>
+      <c r="H28">
+        <v>0.9629651187201463</v>
+      </c>
+      <c r="I28">
+        <v>0.9245606491268805</v>
+      </c>
+      <c r="J28">
+        <v>0.9629651187201463</v>
+      </c>
+      <c r="K28">
+        <v>0.9245606491268805</v>
+      </c>
+      <c r="L28">
+        <v>1.072291673446502</v>
+      </c>
+      <c r="M28">
+        <v>1.017628396083324</v>
+      </c>
+      <c r="N28">
+        <v>1.017628396083324</v>
+      </c>
+      <c r="O28">
+        <v>0.9791510407607055</v>
+      </c>
+      <c r="P28">
+        <v>0.9866058137645096</v>
+      </c>
+      <c r="Q28">
+        <v>0.9866058137645096</v>
+      </c>
+      <c r="R28">
+        <v>0.9710945226051024</v>
+      </c>
+      <c r="S28">
+        <v>0.9710945226051024</v>
+      </c>
+      <c r="T28">
+        <v>1.031140175791122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9834348638521659</v>
+      </c>
+      <c r="D29">
+        <v>1.191925147216256</v>
+      </c>
+      <c r="E29">
+        <v>0.9185627809530909</v>
+      </c>
+      <c r="F29">
+        <v>1.026297565350673</v>
+      </c>
+      <c r="G29">
+        <v>1.045203989164202</v>
+      </c>
+      <c r="H29">
+        <v>0.9394865540089953</v>
+      </c>
+      <c r="I29">
+        <v>0.9834348638521659</v>
+      </c>
+      <c r="J29">
+        <v>0.9394865540089953</v>
+      </c>
+      <c r="K29">
+        <v>0.9834348638521659</v>
+      </c>
+      <c r="L29">
+        <v>1.045203989164202</v>
+      </c>
+      <c r="M29">
+        <v>0.9923452715865988</v>
+      </c>
+      <c r="N29">
+        <v>0.9923452715865988</v>
+      </c>
+      <c r="O29">
+        <v>0.9677511080420961</v>
+      </c>
+      <c r="P29">
+        <v>0.9893751356751211</v>
+      </c>
+      <c r="Q29">
+        <v>0.9893751356751213</v>
+      </c>
+      <c r="R29">
+        <v>0.9878900677193825</v>
+      </c>
+      <c r="S29">
+        <v>0.9878900677193825</v>
+      </c>
+      <c r="T29">
+        <v>1.017485150090897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.100099438437108</v>
+      </c>
+      <c r="D30">
+        <v>0.9831891506506502</v>
+      </c>
+      <c r="E30">
+        <v>0.9514190674240828</v>
+      </c>
+      <c r="F30">
+        <v>1.022696475313899</v>
+      </c>
+      <c r="G30">
+        <v>0.9913388548978033</v>
+      </c>
+      <c r="H30">
+        <v>0.8932172014432441</v>
+      </c>
+      <c r="I30">
+        <v>1.100099438437108</v>
+      </c>
+      <c r="J30">
+        <v>0.8932172014432441</v>
+      </c>
+      <c r="K30">
+        <v>1.100099438437108</v>
+      </c>
+      <c r="L30">
+        <v>0.9913388548978033</v>
+      </c>
+      <c r="M30">
+        <v>0.9422780281705236</v>
+      </c>
+      <c r="N30">
+        <v>0.9422780281705236</v>
+      </c>
+      <c r="O30">
+        <v>0.9453250412550434</v>
+      </c>
+      <c r="P30">
+        <v>0.9948851649260518</v>
+      </c>
+      <c r="Q30">
+        <v>0.9948851649260518</v>
+      </c>
+      <c r="R30">
+        <v>1.021188733303816</v>
+      </c>
+      <c r="S30">
+        <v>1.021188733303816</v>
+      </c>
+      <c r="T30">
+        <v>0.9903266980277978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.134906186764854</v>
+      </c>
+      <c r="D31">
+        <v>0.9607853864515704</v>
+      </c>
+      <c r="E31">
+        <v>0.9479177195226753</v>
+      </c>
+      <c r="F31">
+        <v>1.02321696326605</v>
+      </c>
+      <c r="G31">
+        <v>0.9779272420823603</v>
+      </c>
+      <c r="H31">
+        <v>0.8892174754869826</v>
+      </c>
+      <c r="I31">
+        <v>1.134906186764854</v>
+      </c>
+      <c r="J31">
+        <v>0.8892174754869826</v>
+      </c>
+      <c r="K31">
+        <v>1.134906186764854</v>
+      </c>
+      <c r="L31">
+        <v>0.9779272420823603</v>
+      </c>
+      <c r="M31">
+        <v>0.9335723587846714</v>
+      </c>
+      <c r="N31">
+        <v>0.9335723587846714</v>
+      </c>
+      <c r="O31">
+        <v>0.9383541456973393</v>
+      </c>
+      <c r="P31">
+        <v>1.000683634778066</v>
+      </c>
+      <c r="Q31">
+        <v>1.000683634778066</v>
+      </c>
+      <c r="R31">
+        <v>1.034239272774763</v>
+      </c>
+      <c r="S31">
+        <v>1.034239272774763</v>
+      </c>
+      <c r="T31">
+        <v>0.9889951622624155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8816847498630137</v>
+      </c>
+      <c r="D32">
+        <v>1.391275704136987</v>
+      </c>
+      <c r="E32">
+        <v>0.8823162567123286</v>
+      </c>
+      <c r="F32">
+        <v>1.031670770958904</v>
+      </c>
+      <c r="G32">
+        <v>1.095531329452055</v>
+      </c>
+      <c r="H32">
+        <v>0.9753982140000003</v>
+      </c>
+      <c r="I32">
+        <v>0.8816847498630137</v>
+      </c>
+      <c r="J32">
+        <v>0.9753982140000003</v>
+      </c>
+      <c r="K32">
+        <v>0.8816847498630137</v>
+      </c>
+      <c r="L32">
+        <v>1.095531329452055</v>
+      </c>
+      <c r="M32">
+        <v>1.035464771726027</v>
+      </c>
+      <c r="N32">
+        <v>1.035464771726027</v>
+      </c>
+      <c r="O32">
+        <v>0.9844152667214612</v>
+      </c>
+      <c r="P32">
+        <v>0.9842047644383562</v>
+      </c>
+      <c r="Q32">
+        <v>0.9842047644383562</v>
+      </c>
+      <c r="R32">
+        <v>0.9585747607945206</v>
+      </c>
+      <c r="S32">
+        <v>0.9585747607945206</v>
+      </c>
+      <c r="T32">
+        <v>1.042979504187215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="D33">
+        <v>1.346592761</v>
+      </c>
+      <c r="E33">
+        <v>0.9135578252631577</v>
+      </c>
+      <c r="F33">
+        <v>1.016213122105263</v>
+      </c>
+      <c r="G33">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="H33">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="I33">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="J33">
+        <v>1.043442563052632</v>
+      </c>
+      <c r="K33">
+        <v>0.8787117957894734</v>
+      </c>
+      <c r="L33">
+        <v>1.075012418947368</v>
+      </c>
+      <c r="M33">
+        <v>1.059227491</v>
+      </c>
+      <c r="N33">
+        <v>1.059227491</v>
+      </c>
+      <c r="O33">
+        <v>1.010670935754386</v>
+      </c>
+      <c r="P33">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="Q33">
+        <v>0.9990555925964912</v>
+      </c>
+      <c r="R33">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="S33">
+        <v>0.9689696433947368</v>
+      </c>
+      <c r="T33">
+        <v>1.045588414359649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="D34">
+        <v>0.3509733176842105</v>
+      </c>
+      <c r="E34">
+        <v>1.409723701052632</v>
+      </c>
+      <c r="F34">
+        <v>0.8023913536842106</v>
+      </c>
+      <c r="G34">
+        <v>0.7061252994736843</v>
+      </c>
+      <c r="H34">
+        <v>1.772162625263158</v>
+      </c>
+      <c r="I34">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="J34">
+        <v>1.772162625263158</v>
+      </c>
+      <c r="K34">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="L34">
+        <v>0.7061252994736843</v>
+      </c>
+      <c r="M34">
+        <v>1.239143962368421</v>
+      </c>
+      <c r="N34">
+        <v>1.239143962368421</v>
+      </c>
+      <c r="O34">
+        <v>1.296003875263158</v>
+      </c>
+      <c r="P34">
+        <v>1.17219588</v>
+      </c>
+      <c r="Q34">
+        <v>1.17219588</v>
+      </c>
+      <c r="R34">
+        <v>1.13872183881579</v>
+      </c>
+      <c r="S34">
+        <v>1.13872183881579</v>
+      </c>
+      <c r="T34">
+        <v>1.013279335403509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.540010091338838</v>
+      </c>
+      <c r="D35">
+        <v>0.8255684598171467</v>
+      </c>
+      <c r="E35">
+        <v>0.7990690501455756</v>
+      </c>
+      <c r="F35">
+        <v>1.090393695065602</v>
+      </c>
+      <c r="G35">
+        <v>0.9101225039808432</v>
+      </c>
+      <c r="H35">
+        <v>0.5568161651259612</v>
+      </c>
+      <c r="I35">
+        <v>1.540010091338838</v>
+      </c>
+      <c r="J35">
+        <v>0.5568161651259612</v>
+      </c>
+      <c r="K35">
+        <v>1.540010091338838</v>
+      </c>
+      <c r="L35">
+        <v>0.9101225039808432</v>
+      </c>
+      <c r="M35">
+        <v>0.7334693345534022</v>
+      </c>
+      <c r="N35">
+        <v>0.7334693345534022</v>
+      </c>
+      <c r="O35">
+        <v>0.75533590641746</v>
+      </c>
+      <c r="P35">
+        <v>1.002316253481881</v>
+      </c>
+      <c r="Q35">
+        <v>1.002316253481881</v>
+      </c>
+      <c r="R35">
+        <v>1.13673971294612</v>
+      </c>
+      <c r="S35">
+        <v>1.13673971294612</v>
+      </c>
+      <c r="T35">
+        <v>0.9536633275789944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9995998971352509</v>
+      </c>
+      <c r="D36">
+        <v>1.001127443326782</v>
+      </c>
+      <c r="E36">
+        <v>0.9999836861461904</v>
+      </c>
+      <c r="F36">
+        <v>0.9998536901028192</v>
+      </c>
+      <c r="G36">
+        <v>0.9999604246063594</v>
+      </c>
+      <c r="H36">
+        <v>1.001007354090671</v>
+      </c>
+      <c r="I36">
+        <v>0.9995998971352509</v>
+      </c>
+      <c r="J36">
+        <v>1.001007354090671</v>
+      </c>
+      <c r="K36">
+        <v>0.9995998971352509</v>
+      </c>
+      <c r="L36">
+        <v>0.9999604246063594</v>
+      </c>
+      <c r="M36">
+        <v>1.000483889348515</v>
+      </c>
+      <c r="N36">
+        <v>1.000483889348515</v>
+      </c>
+      <c r="O36">
+        <v>1.00031715494774</v>
+      </c>
+      <c r="P36">
+        <v>1.000189225277427</v>
+      </c>
+      <c r="Q36">
+        <v>1.000189225277427</v>
+      </c>
+      <c r="R36">
+        <v>1.000041893241883</v>
+      </c>
+      <c r="S36">
+        <v>1.000041893241883</v>
+      </c>
+      <c r="T36">
+        <v>1.000255415901346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.002507886988702</v>
+      </c>
+      <c r="D37">
+        <v>0.9975293563510699</v>
+      </c>
+      <c r="E37">
+        <v>0.9994437631193687</v>
+      </c>
+      <c r="F37">
+        <v>1.000462184973712</v>
+      </c>
+      <c r="G37">
+        <v>0.9996314345506389</v>
+      </c>
+      <c r="H37">
+        <v>0.9973544264949608</v>
+      </c>
+      <c r="I37">
+        <v>1.002507886988702</v>
+      </c>
+      <c r="J37">
+        <v>0.9973544264949608</v>
+      </c>
+      <c r="K37">
+        <v>1.002507886988702</v>
+      </c>
+      <c r="L37">
+        <v>0.9996314345506389</v>
+      </c>
+      <c r="M37">
+        <v>0.9984929305227999</v>
+      </c>
+      <c r="N37">
+        <v>0.9984929305227999</v>
+      </c>
+      <c r="O37">
+        <v>0.9988098747216562</v>
+      </c>
+      <c r="P37">
+        <v>0.9998312493447674</v>
+      </c>
+      <c r="Q37">
+        <v>0.9998312493447673</v>
+      </c>
+      <c r="R37">
+        <v>1.000500408755751</v>
+      </c>
+      <c r="S37">
+        <v>1.000500408755751</v>
+      </c>
+      <c r="T37">
+        <v>0.9994881754130754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9956544766791313</v>
+      </c>
+      <c r="D38">
+        <v>1.00980838366082</v>
+      </c>
+      <c r="E38">
+        <v>0.9985668291630947</v>
+      </c>
+      <c r="F38">
+        <v>0.9998900165929933</v>
+      </c>
+      <c r="G38">
+        <v>1.001699551507158</v>
+      </c>
+      <c r="H38">
+        <v>1.003218111259674</v>
+      </c>
+      <c r="I38">
+        <v>0.9956544766791313</v>
+      </c>
+      <c r="J38">
+        <v>1.003218111259674</v>
+      </c>
+      <c r="K38">
+        <v>0.9956544766791313</v>
+      </c>
+      <c r="L38">
+        <v>1.001699551507158</v>
+      </c>
+      <c r="M38">
+        <v>1.002458831383416</v>
+      </c>
+      <c r="N38">
+        <v>1.002458831383416</v>
+      </c>
+      <c r="O38">
+        <v>1.001161497309975</v>
+      </c>
+      <c r="P38">
+        <v>1.000190713148654</v>
+      </c>
+      <c r="Q38">
+        <v>1.000190713148654</v>
+      </c>
+      <c r="R38">
+        <v>0.9990566540312735</v>
+      </c>
+      <c r="S38">
+        <v>0.9990566540312735</v>
+      </c>
+      <c r="T38">
+        <v>1.001472894810479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9815920966226858</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.035525848225541</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9969288831100792</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9984874946428898</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.005458290341542</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.016966660699337</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9815920966226858</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.016966660699337</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9815920966226858</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.005458290341542</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.01121247552044</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.01121247552044</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.00645127805032</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.001339015887855</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.001339015887855</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9964022860715629</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9964022860715629</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.005826545607013</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8987220453900814</v>
+      </c>
+      <c r="D40">
+        <v>0.8601225479086256</v>
+      </c>
+      <c r="E40">
+        <v>1.157281997926195</v>
+      </c>
+      <c r="F40">
+        <v>0.9223018696097537</v>
+      </c>
+      <c r="G40">
+        <v>0.932105162961229</v>
+      </c>
+      <c r="H40">
+        <v>1.344285839179582</v>
+      </c>
+      <c r="I40">
+        <v>0.8987220453900814</v>
+      </c>
+      <c r="J40">
+        <v>1.344285839179582</v>
+      </c>
+      <c r="K40">
+        <v>0.8987220453900814</v>
+      </c>
+      <c r="L40">
+        <v>0.932105162961229</v>
+      </c>
+      <c r="M40">
+        <v>1.138195501070405</v>
+      </c>
+      <c r="N40">
+        <v>1.138195501070405</v>
+      </c>
+      <c r="O40">
+        <v>1.144557666689002</v>
+      </c>
+      <c r="P40">
+        <v>1.058371015843631</v>
+      </c>
+      <c r="Q40">
+        <v>1.058371015843631</v>
+      </c>
+      <c r="R40">
+        <v>1.018458773230243</v>
+      </c>
+      <c r="S40">
+        <v>1.018458773230243</v>
+      </c>
+      <c r="T40">
+        <v>1.019136577162578</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.002317842751564</v>
+      </c>
+      <c r="D41">
+        <v>0.8617281283758096</v>
+      </c>
+      <c r="E41">
+        <v>1.083088425499244</v>
+      </c>
+      <c r="F41">
+        <v>0.9626195322865356</v>
+      </c>
+      <c r="G41">
+        <v>0.94629951589301</v>
+      </c>
+      <c r="H41">
+        <v>1.138427798753383</v>
+      </c>
+      <c r="I41">
+        <v>1.002317842751564</v>
+      </c>
+      <c r="J41">
+        <v>1.138427798753383</v>
+      </c>
+      <c r="K41">
+        <v>1.002317842751564</v>
+      </c>
+      <c r="L41">
+        <v>0.94629951589301</v>
+      </c>
+      <c r="M41">
+        <v>1.042363657323196</v>
+      </c>
+      <c r="N41">
+        <v>1.042363657323196</v>
+      </c>
+      <c r="O41">
+        <v>1.055938580048546</v>
+      </c>
+      <c r="P41">
+        <v>1.029015052465986</v>
+      </c>
+      <c r="Q41">
+        <v>1.029015052465986</v>
+      </c>
+      <c r="R41">
+        <v>1.02234075003738</v>
+      </c>
+      <c r="S41">
+        <v>1.02234075003738</v>
+      </c>
+      <c r="T41">
+        <v>0.9990802072599244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8760558036270051</v>
+      </c>
+      <c r="D42">
+        <v>1.012372539743829</v>
+      </c>
+      <c r="E42">
+        <v>1.073310428811749</v>
+      </c>
+      <c r="F42">
+        <v>0.9611938121328173</v>
+      </c>
+      <c r="G42">
+        <v>0.9962666433615526</v>
+      </c>
+      <c r="H42">
+        <v>1.203261195522651</v>
+      </c>
+      <c r="I42">
+        <v>0.8760558036270051</v>
+      </c>
+      <c r="J42">
+        <v>1.203261195522651</v>
+      </c>
+      <c r="K42">
+        <v>0.8760558036270051</v>
+      </c>
+      <c r="L42">
+        <v>0.9962666433615526</v>
+      </c>
+      <c r="M42">
+        <v>1.099763919442102</v>
+      </c>
+      <c r="N42">
+        <v>1.099763919442102</v>
+      </c>
+      <c r="O42">
+        <v>1.090946089231984</v>
+      </c>
+      <c r="P42">
+        <v>1.025194547503736</v>
+      </c>
+      <c r="Q42">
+        <v>1.025194547503736</v>
+      </c>
+      <c r="R42">
+        <v>0.9879098615345534</v>
+      </c>
+      <c r="S42">
+        <v>0.9879098615345534</v>
+      </c>
+      <c r="T42">
+        <v>1.020410070533267</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9954006084214246</v>
+        <v>1.002992145120057</v>
       </c>
       <c r="D3">
-        <v>0.9991332059929949</v>
+        <v>0.9988595500957709</v>
       </c>
       <c r="E3">
-        <v>1.003867986746092</v>
+        <v>0.9989682493993196</v>
       </c>
       <c r="F3">
-        <v>0.9954006084214246</v>
+        <v>1.000470796067003</v>
       </c>
       <c r="G3">
-        <v>1.016407778656226</v>
+        <v>0.9994616799029203</v>
       </c>
       <c r="H3">
-        <v>0.9949642703555495</v>
+        <v>0.9976470960848931</v>
       </c>
       <c r="I3">
-        <v>1.001322822287575</v>
+        <v>1.002992145120057</v>
       </c>
       <c r="J3">
-        <v>0.9991332059929949</v>
+        <v>0.9976470960848931</v>
       </c>
       <c r="K3">
-        <v>0.9954006084214246</v>
+        <v>1.002992145120057</v>
       </c>
       <c r="L3">
-        <v>1.003867986746092</v>
+        <v>0.9994616799029203</v>
       </c>
       <c r="M3">
-        <v>1.001500596369543</v>
+        <v>0.9985543879939067</v>
       </c>
       <c r="N3">
-        <v>1.001500596369543</v>
+        <v>0.9985543879939067</v>
       </c>
       <c r="O3">
-        <v>0.9993218210315454</v>
+        <v>0.998692341795711</v>
       </c>
       <c r="P3">
-        <v>0.9994672670535039</v>
+        <v>1.00003364036929</v>
       </c>
       <c r="Q3">
-        <v>0.9994672670535039</v>
+        <v>1.00003364036929</v>
       </c>
       <c r="R3">
-        <v>0.998450602395484</v>
+        <v>1.000773266556982</v>
       </c>
       <c r="S3">
-        <v>0.998450602395484</v>
+        <v>1.000773266556982</v>
       </c>
       <c r="T3">
-        <v>1.001849445409977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9997332527783271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9911777093690577</v>
+        <v>0.8987220453900814</v>
       </c>
       <c r="D4">
-        <v>0.9976045975595175</v>
+        <v>0.8601225479086256</v>
       </c>
       <c r="E4">
-        <v>1.007544156624389</v>
+        <v>1.157281997926195</v>
       </c>
       <c r="F4">
-        <v>0.9911777093690577</v>
+        <v>0.9223018696097537</v>
       </c>
       <c r="G4">
-        <v>1.031161976488954</v>
+        <v>0.932105162961229</v>
       </c>
       <c r="H4">
-        <v>0.9903266645286525</v>
+        <v>1.344285839179582</v>
       </c>
       <c r="I4">
-        <v>1.002632416418542</v>
+        <v>0.8987220453900814</v>
       </c>
       <c r="J4">
-        <v>0.9976045975595175</v>
+        <v>1.344285839179582</v>
       </c>
       <c r="K4">
-        <v>0.9911777093690577</v>
+        <v>0.8987220453900814</v>
       </c>
       <c r="L4">
-        <v>1.007544156624389</v>
+        <v>0.932105162961229</v>
       </c>
       <c r="M4">
-        <v>1.002574377091953</v>
+        <v>1.138195501070405</v>
       </c>
       <c r="N4">
-        <v>1.002574377091953</v>
+        <v>1.138195501070405</v>
       </c>
       <c r="O4">
-        <v>0.9984918062375195</v>
+        <v>1.144557666689002</v>
       </c>
       <c r="P4">
-        <v>0.9987754878509879</v>
+        <v>1.058371015843631</v>
       </c>
       <c r="Q4">
-        <v>0.9987754878509879</v>
+        <v>1.058371015843631</v>
       </c>
       <c r="R4">
-        <v>0.9968760432305054</v>
+        <v>1.018458773230243</v>
       </c>
       <c r="S4">
-        <v>0.9968760432305054</v>
+        <v>1.018458773230243</v>
       </c>
       <c r="T4">
-        <v>1.003407920164852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.019136577162578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9843738631234213</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="D5">
-        <v>0.9956918653324878</v>
+        <v>0.9758495867896232</v>
       </c>
       <c r="E5">
-        <v>1.013882813979137</v>
+        <v>0.9490212594380415</v>
       </c>
       <c r="F5">
-        <v>0.9843738631234213</v>
+        <v>1.023070324841498</v>
       </c>
       <c r="G5">
-        <v>1.059130541473014</v>
+        <v>0.9858441337463973</v>
       </c>
       <c r="H5">
-        <v>0.9813597273728195</v>
+        <v>0.8911218319524506</v>
       </c>
       <c r="I5">
-        <v>1.004983419947588</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="J5">
-        <v>0.9956918653324878</v>
+        <v>0.8911218319524506</v>
       </c>
       <c r="K5">
-        <v>0.9843738631234213</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="L5">
-        <v>1.013882813979137</v>
+        <v>0.9858441337463973</v>
       </c>
       <c r="M5">
-        <v>1.004787339655812</v>
+        <v>0.938482982849424</v>
       </c>
       <c r="N5">
-        <v>1.004787339655812</v>
+        <v>0.938482982849424</v>
       </c>
       <c r="O5">
-        <v>0.9969781355614814</v>
+        <v>0.9419957417122965</v>
       </c>
       <c r="P5">
-        <v>0.9979828474783486</v>
+        <v>0.9974277310470715</v>
       </c>
       <c r="Q5">
-        <v>0.9979828474783486</v>
+        <v>0.9974277310470715</v>
       </c>
       <c r="R5">
-        <v>0.9945806013896168</v>
+        <v>1.026900105145895</v>
       </c>
       <c r="S5">
-        <v>0.9945806013896168</v>
+        <v>1.026900105145895</v>
       </c>
       <c r="T5">
-        <v>1.006570371871411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9900373940350627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9782040752536101</v>
+        <v>1.540010091338838</v>
       </c>
       <c r="D6">
-        <v>0.9939372477037227</v>
+        <v>0.8255684598171467</v>
       </c>
       <c r="E6">
-        <v>1.020182341757642</v>
+        <v>0.7990690501455756</v>
       </c>
       <c r="F6">
-        <v>0.9782040752536101</v>
+        <v>1.090393695065602</v>
       </c>
       <c r="G6">
-        <v>1.086231386598525</v>
+        <v>0.9101225039808432</v>
       </c>
       <c r="H6">
-        <v>0.9723886595822702</v>
+        <v>0.5568161651259612</v>
       </c>
       <c r="I6">
-        <v>1.00727940912792</v>
+        <v>1.540010091338838</v>
       </c>
       <c r="J6">
-        <v>0.9939372477037227</v>
+        <v>0.5568161651259612</v>
       </c>
       <c r="K6">
-        <v>0.9782040752536101</v>
+        <v>1.540010091338838</v>
       </c>
       <c r="L6">
-        <v>1.020182341757642</v>
+        <v>0.9101225039808432</v>
       </c>
       <c r="M6">
-        <v>1.007059794730682</v>
+        <v>0.7334693345534022</v>
       </c>
       <c r="N6">
-        <v>1.007059794730682</v>
+        <v>0.7334693345534022</v>
       </c>
       <c r="O6">
-        <v>0.9955027496812114</v>
+        <v>0.75533590641746</v>
       </c>
       <c r="P6">
-        <v>0.9974412215716582</v>
+        <v>1.002316253481881</v>
       </c>
       <c r="Q6">
-        <v>0.9974412215716582</v>
+        <v>1.002316253481881</v>
       </c>
       <c r="R6">
-        <v>0.9926319349921462</v>
+        <v>1.13673971294612</v>
       </c>
       <c r="S6">
-        <v>0.9926319349921462</v>
+        <v>1.13673971294612</v>
       </c>
       <c r="T6">
-        <v>1.009703853337282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9536633275789944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001161487393464</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="D7">
-        <v>0.9990191406540014</v>
+        <v>1.013792922177559</v>
       </c>
       <c r="E7">
-        <v>0.9998147899810028</v>
+        <v>0.9967062548095341</v>
       </c>
       <c r="F7">
-        <v>1.001161487393464</v>
+        <v>1.000597012393315</v>
       </c>
       <c r="G7">
-        <v>0.9996480030069937</v>
+        <v>1.002946112493005</v>
       </c>
       <c r="H7">
-        <v>0.9995548435511532</v>
+        <v>1.001476203662625</v>
       </c>
       <c r="I7">
-        <v>1.000200473676888</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="J7">
-        <v>0.9990191406540014</v>
+        <v>1.001476203662625</v>
       </c>
       <c r="K7">
-        <v>1.001161487393464</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="L7">
-        <v>0.9998147899810028</v>
+        <v>1.002946112493005</v>
       </c>
       <c r="M7">
-        <v>0.9994169653175021</v>
+        <v>1.002211158077815</v>
       </c>
       <c r="N7">
-        <v>0.9994169653175021</v>
+        <v>1.002211158077815</v>
       </c>
       <c r="O7">
-        <v>0.9994629247287191</v>
+        <v>1.000376190321721</v>
       </c>
       <c r="P7">
-        <v>0.9999984726761563</v>
+        <v>0.9998271545891191</v>
       </c>
       <c r="Q7">
-        <v>0.9999984726761563</v>
+        <v>0.9998271545891191</v>
       </c>
       <c r="R7">
-        <v>1.000289226355483</v>
+        <v>0.9986351528447711</v>
       </c>
       <c r="S7">
-        <v>1.000289226355483</v>
+        <v>0.9986351528447711</v>
       </c>
       <c r="T7">
-        <v>0.9998997897105838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.001762942191294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002992145120057</v>
+        <v>1.002507886988702</v>
       </c>
       <c r="D8">
-        <v>0.9976470960848934</v>
+        <v>0.9975293563510699</v>
       </c>
       <c r="E8">
-        <v>0.9994616799029199</v>
+        <v>0.9994437631193687</v>
       </c>
       <c r="F8">
-        <v>1.002992145120057</v>
+        <v>1.000462184973712</v>
       </c>
       <c r="G8">
-        <v>0.99885955009577</v>
+        <v>0.9996314345506389</v>
       </c>
       <c r="H8">
-        <v>0.9989682493993198</v>
+        <v>0.9973544264949608</v>
       </c>
       <c r="I8">
-        <v>1.000470796067003</v>
+        <v>1.002507886988702</v>
       </c>
       <c r="J8">
-        <v>0.9976470960848934</v>
+        <v>0.9973544264949608</v>
       </c>
       <c r="K8">
-        <v>1.002992145120057</v>
+        <v>1.002507886988702</v>
       </c>
       <c r="L8">
-        <v>0.9994616799029199</v>
+        <v>0.9996314345506389</v>
       </c>
       <c r="M8">
-        <v>0.9985543879939067</v>
+        <v>0.9984929305227999</v>
       </c>
       <c r="N8">
-        <v>0.9985543879939067</v>
+        <v>0.9984929305227999</v>
       </c>
       <c r="O8">
-        <v>0.9986923417957111</v>
+        <v>0.9988098747216562</v>
       </c>
       <c r="P8">
-        <v>1.00003364036929</v>
+        <v>0.9998312493447674</v>
       </c>
       <c r="Q8">
-        <v>1.00003364036929</v>
+        <v>0.9998312493447673</v>
       </c>
       <c r="R8">
-        <v>1.000773266556982</v>
+        <v>1.000500408755751</v>
       </c>
       <c r="S8">
-        <v>1.000773266556982</v>
+        <v>1.000500408755751</v>
       </c>
       <c r="T8">
-        <v>0.9997332527783271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9994881754130754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004476490170248</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="D9">
-        <v>0.9961784923004164</v>
+        <v>1.031161976488954</v>
       </c>
       <c r="E9">
-        <v>0.9992956202530529</v>
+        <v>0.9903266645286525</v>
       </c>
       <c r="F9">
-        <v>1.004476490170248</v>
+        <v>1.002632416418542</v>
       </c>
       <c r="G9">
-        <v>0.9986126836080158</v>
+        <v>1.007544156624389</v>
       </c>
       <c r="H9">
-        <v>0.998277507768574</v>
+        <v>0.9976045975595175</v>
       </c>
       <c r="I9">
-        <v>1.000785154449024</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="J9">
-        <v>0.9961784923004164</v>
+        <v>0.9976045975595175</v>
       </c>
       <c r="K9">
-        <v>1.004476490170248</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="L9">
-        <v>0.9992956202530529</v>
+        <v>1.007544156624389</v>
       </c>
       <c r="M9">
-        <v>0.9977370562767347</v>
+        <v>1.002574377091953</v>
       </c>
       <c r="N9">
-        <v>0.9977370562767347</v>
+        <v>1.002574377091953</v>
       </c>
       <c r="O9">
-        <v>0.9979172067740145</v>
+        <v>0.9984918062375195</v>
       </c>
       <c r="P9">
-        <v>0.9999835342412391</v>
+        <v>0.9987754878509879</v>
       </c>
       <c r="Q9">
-        <v>0.9999835342412391</v>
+        <v>0.9987754878509879</v>
       </c>
       <c r="R9">
-        <v>1.001106773223491</v>
+        <v>0.9968760432305054</v>
       </c>
       <c r="S9">
-        <v>1.001106773223491</v>
+        <v>0.9968760432305054</v>
       </c>
       <c r="T9">
-        <v>0.9996043247582219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.003407920164852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.009225360900491</v>
+        <v>1.557597903844996</v>
       </c>
       <c r="D10">
-        <v>0.9922314808290141</v>
+        <v>0.8177403957832933</v>
       </c>
       <c r="E10">
-        <v>0.9985191295345618</v>
+        <v>0.7953191871941194</v>
       </c>
       <c r="F10">
-        <v>1.009225360900491</v>
+        <v>1.091484820463565</v>
       </c>
       <c r="G10">
-        <v>0.9969859189676863</v>
+        <v>0.9045185774975608</v>
       </c>
       <c r="H10">
-        <v>0.9965231868959028</v>
+        <v>0.5519817374957835</v>
       </c>
       <c r="I10">
-        <v>1.001587105011161</v>
+        <v>1.557597903844996</v>
       </c>
       <c r="J10">
-        <v>0.9922314808290141</v>
+        <v>0.5519817374957835</v>
       </c>
       <c r="K10">
-        <v>1.009225360900491</v>
+        <v>1.557597903844996</v>
       </c>
       <c r="L10">
-        <v>0.9985191295345618</v>
+        <v>0.9045185774975608</v>
       </c>
       <c r="M10">
-        <v>0.995375305181788</v>
+        <v>0.7282501574966722</v>
       </c>
       <c r="N10">
-        <v>0.995375305181788</v>
+        <v>0.7282501574966722</v>
       </c>
       <c r="O10">
-        <v>0.9957579324198264</v>
+        <v>0.7506065007291546</v>
       </c>
       <c r="P10">
-        <v>0.9999919904213556</v>
+        <v>1.004699406279447</v>
       </c>
       <c r="Q10">
-        <v>0.9999919904213556</v>
+        <v>1.004699406279447</v>
       </c>
       <c r="R10">
-        <v>1.002300333041139</v>
+        <v>1.142924030670834</v>
       </c>
       <c r="S10">
-        <v>1.002300333041139</v>
+        <v>1.142924030670834</v>
       </c>
       <c r="T10">
-        <v>0.9991786970231362</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9531071037132195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.016238053354957</v>
+        <v>0.9119718143625501</v>
       </c>
       <c r="D11">
-        <v>0.9860452313382</v>
+        <v>0.7366980084685932</v>
       </c>
       <c r="E11">
-        <v>0.9975024557554489</v>
+        <v>1.2242349798042</v>
       </c>
       <c r="F11">
-        <v>1.016238053354957</v>
+        <v>0.8926288926563125</v>
       </c>
       <c r="G11">
-        <v>0.9948182287564317</v>
+        <v>0.8846958310364982</v>
       </c>
       <c r="H11">
-        <v>0.9937428092305391</v>
+        <v>1.449965667946476</v>
       </c>
       <c r="I11">
-        <v>1.002873259990368</v>
+        <v>0.9119718143625501</v>
       </c>
       <c r="J11">
-        <v>0.9860452313382</v>
+        <v>1.449965667946476</v>
       </c>
       <c r="K11">
-        <v>1.016238053354957</v>
+        <v>0.9119718143625501</v>
       </c>
       <c r="L11">
-        <v>0.9975024557554489</v>
+        <v>0.8846958310364982</v>
       </c>
       <c r="M11">
-        <v>0.9917738435468244</v>
+        <v>1.167330749491487</v>
       </c>
       <c r="N11">
-        <v>0.9917738435468244</v>
+        <v>1.167330749491487</v>
       </c>
       <c r="O11">
-        <v>0.992430165441396</v>
+        <v>1.186298826262391</v>
       </c>
       <c r="P11">
-        <v>0.9999285801495353</v>
+        <v>1.082211104448508</v>
       </c>
       <c r="Q11">
-        <v>0.9999285801495353</v>
+        <v>1.082211104448508</v>
       </c>
       <c r="R11">
-        <v>1.004005948450891</v>
+        <v>1.039651281927019</v>
       </c>
       <c r="S11">
-        <v>1.004005948450891</v>
+        <v>1.039651281927019</v>
       </c>
       <c r="T11">
-        <v>0.9985366730709909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.016699199045772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9422085480144063</v>
+        <v>1.164754340652633</v>
       </c>
       <c r="D12">
-        <v>0.9318562016855162</v>
+        <v>0.9328931536547368</v>
       </c>
       <c r="E12">
-        <v>1.039747067715987</v>
+        <v>0.9474014844526308</v>
       </c>
       <c r="F12">
-        <v>0.9422085480144063</v>
+        <v>1.02359396523158</v>
       </c>
       <c r="G12">
-        <v>1.012390764726487</v>
+        <v>0.9665320305578933</v>
       </c>
       <c r="H12">
-        <v>0.9974542226888108</v>
+        <v>0.8816107053305275</v>
       </c>
       <c r="I12">
-        <v>1.011593383523964</v>
+        <v>1.164754340652633</v>
       </c>
       <c r="J12">
-        <v>0.9318562016855162</v>
+        <v>0.8816107053305275</v>
       </c>
       <c r="K12">
-        <v>0.9422085480144063</v>
+        <v>1.164754340652633</v>
       </c>
       <c r="L12">
-        <v>1.039747067715987</v>
+        <v>0.9665320305578933</v>
       </c>
       <c r="M12">
-        <v>0.9858016347007517</v>
+        <v>0.9240713679442104</v>
       </c>
       <c r="N12">
-        <v>0.9858016347007517</v>
+        <v>0.9240713679442104</v>
       </c>
       <c r="O12">
-        <v>0.9896858306967714</v>
+        <v>0.9318480734470173</v>
       </c>
       <c r="P12">
-        <v>0.9712706058053032</v>
+        <v>1.004299025513684</v>
       </c>
       <c r="Q12">
-        <v>0.9712706058053032</v>
+        <v>1.004299025513684</v>
       </c>
       <c r="R12">
-        <v>0.9640050913575789</v>
+        <v>1.044412854298421</v>
       </c>
       <c r="S12">
-        <v>0.9640050913575789</v>
+        <v>1.044412854298421</v>
       </c>
       <c r="T12">
-        <v>0.9892083647258619</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9861309466466669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.059548244205389</v>
+        <v>0.9730401069195072</v>
       </c>
       <c r="D13">
-        <v>1.067964252920152</v>
+        <v>0.9783236853278542</v>
       </c>
       <c r="E13">
-        <v>0.9601667937851364</v>
+        <v>1.034647169740668</v>
       </c>
       <c r="F13">
-        <v>1.059548244205389</v>
+        <v>0.9818278515284242</v>
       </c>
       <c r="G13">
-        <v>1.02319818206806</v>
+        <v>0.9853695923320617</v>
       </c>
       <c r="H13">
-        <v>0.9928450615510304</v>
+        <v>1.084103838478959</v>
       </c>
       <c r="I13">
-        <v>0.9890386921676247</v>
+        <v>0.9730401069195072</v>
       </c>
       <c r="J13">
-        <v>1.067964252920152</v>
+        <v>1.084103838478959</v>
       </c>
       <c r="K13">
-        <v>1.059548244205389</v>
+        <v>0.9730401069195072</v>
       </c>
       <c r="L13">
-        <v>0.9601667937851364</v>
+        <v>0.9853695923320617</v>
       </c>
       <c r="M13">
-        <v>1.014065523352644</v>
+        <v>1.03473671540551</v>
       </c>
       <c r="N13">
-        <v>1.014065523352644</v>
+        <v>1.03473671540551</v>
       </c>
       <c r="O13">
-        <v>1.00699203608544</v>
+        <v>1.034706866850563</v>
       </c>
       <c r="P13">
-        <v>1.029226430303559</v>
+        <v>1.014171179243509</v>
       </c>
       <c r="Q13">
-        <v>1.029226430303559</v>
+        <v>1.014171179243509</v>
       </c>
       <c r="R13">
-        <v>1.036806883779016</v>
+        <v>1.003888411162509</v>
       </c>
       <c r="S13">
-        <v>1.036806883779016</v>
+        <v>1.003888411162509</v>
       </c>
       <c r="T13">
-        <v>1.015460204449565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.006218707387912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8731923049019394</v>
+        <v>1.9813918</v>
       </c>
       <c r="D14">
-        <v>0.1398369913072594</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="E14">
-        <v>1.411107354708371</v>
+        <v>0.6454245799999989</v>
       </c>
       <c r="F14">
-        <v>0.8731923049019394</v>
+        <v>1.158546599999999</v>
       </c>
       <c r="G14">
-        <v>2.273757410017423</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="H14">
-        <v>0.3739415155053741</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="I14">
-        <v>1.254853269454525</v>
+        <v>1.9813918</v>
       </c>
       <c r="J14">
-        <v>0.1398369913072594</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="K14">
-        <v>0.8731923049019394</v>
+        <v>1.9813918</v>
       </c>
       <c r="L14">
-        <v>1.411107354708371</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="M14">
-        <v>0.7754721730078152</v>
+        <v>0.5239188100000006</v>
       </c>
       <c r="N14">
-        <v>0.7754721730078152</v>
+        <v>0.5239188100000006</v>
       </c>
       <c r="O14">
-        <v>0.6416286205070015</v>
+        <v>0.5644207333333334</v>
       </c>
       <c r="P14">
-        <v>0.8080455503058567</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q14">
-        <v>0.8080455503058567</v>
+        <v>1.009743140000001</v>
       </c>
       <c r="R14">
-        <v>0.8243322389548773</v>
+        <v>1.252655305</v>
       </c>
       <c r="S14">
-        <v>0.8243322389548773</v>
+        <v>1.252655305</v>
       </c>
       <c r="T14">
-        <v>1.054448140982482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.917068298333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.236171008120947</v>
+        <v>1.9813918</v>
       </c>
       <c r="D15">
-        <v>0.539790818061379</v>
+        <v>0.66920919</v>
       </c>
       <c r="E15">
-        <v>1.04786352455284</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="F15">
-        <v>1.236171008120947</v>
+        <v>1.1585466</v>
       </c>
       <c r="G15">
-        <v>0.9754516980295287</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="H15">
-        <v>0.8176698907503707</v>
+        <v>0.21885897</v>
       </c>
       <c r="I15">
-        <v>1.102555332185788</v>
+        <v>1.9813918</v>
       </c>
       <c r="J15">
-        <v>0.539790818061379</v>
+        <v>0.21885897</v>
       </c>
       <c r="K15">
-        <v>1.236171008120947</v>
+        <v>1.9813918</v>
       </c>
       <c r="L15">
-        <v>1.04786352455284</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M15">
-        <v>0.7938271713071092</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N15">
-        <v>0.7938271713071092</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O15">
-        <v>0.8017747444548631</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P15">
-        <v>0.9412751169117217</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q15">
-        <v>0.9412751169117218</v>
+        <v>1.00974314</v>
       </c>
       <c r="R15">
-        <v>1.014999089714028</v>
+        <v>1.252655305</v>
       </c>
       <c r="S15">
-        <v>1.014999089714028</v>
+        <v>1.252655305</v>
       </c>
       <c r="T15">
-        <v>0.9532503786168088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9170682983333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9995998971352509</v>
+        <v>0.21885897</v>
       </c>
       <c r="D16">
-        <v>1.001007354090672</v>
+        <v>0.054357122</v>
       </c>
       <c r="E16">
-        <v>0.9999604246063594</v>
+        <v>2.1879417</v>
       </c>
       <c r="F16">
-        <v>0.9995998971352509</v>
+        <v>0.3808422</v>
       </c>
       <c r="G16">
-        <v>1.001127443326781</v>
+        <v>0.44908907</v>
       </c>
       <c r="H16">
-        <v>0.9999836861461904</v>
+        <v>3.9393531</v>
       </c>
       <c r="I16">
-        <v>0.999853690102819</v>
+        <v>0.21885897</v>
       </c>
       <c r="J16">
-        <v>1.001007354090672</v>
+        <v>3.9393531</v>
       </c>
       <c r="K16">
-        <v>0.9995998971352509</v>
+        <v>0.21885897</v>
       </c>
       <c r="L16">
-        <v>0.9999604246063594</v>
+        <v>0.44908907</v>
       </c>
       <c r="M16">
-        <v>1.000483889348516</v>
+        <v>2.194221085</v>
       </c>
       <c r="N16">
-        <v>1.000483889348516</v>
+        <v>2.194221085</v>
       </c>
       <c r="O16">
-        <v>1.000317154947741</v>
+        <v>2.192127956666667</v>
       </c>
       <c r="P16">
-        <v>1.000189225277427</v>
+        <v>1.535767046666667</v>
       </c>
       <c r="Q16">
-        <v>1.000189225277428</v>
+        <v>1.535767046666667</v>
       </c>
       <c r="R16">
-        <v>1.000041893241884</v>
+        <v>1.2065400275</v>
       </c>
       <c r="S16">
-        <v>1.000041893241884</v>
+        <v>1.2065400275</v>
       </c>
       <c r="T16">
-        <v>1.000255415901346</v>
+        <v>1.205073693666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.002507886988703</v>
+        <v>0.7879287099999999</v>
       </c>
       <c r="D17">
-        <v>0.9973544264949608</v>
+        <v>1.0292497</v>
       </c>
       <c r="E17">
-        <v>0.9996314345506401</v>
+        <v>0.98729176</v>
       </c>
       <c r="F17">
-        <v>1.002507886988703</v>
+        <v>1.0408768</v>
       </c>
       <c r="G17">
-        <v>0.99752935635107</v>
+        <v>1.1499929</v>
       </c>
       <c r="H17">
-        <v>0.999443763119369</v>
+        <v>0.82100996</v>
       </c>
       <c r="I17">
-        <v>1.000462184973712</v>
+        <v>0.7879287099999999</v>
       </c>
       <c r="J17">
-        <v>0.9973544264949608</v>
+        <v>0.82100996</v>
       </c>
       <c r="K17">
-        <v>1.002507886988703</v>
+        <v>0.7879287099999999</v>
       </c>
       <c r="L17">
-        <v>0.9996314345506401</v>
+        <v>1.1499929</v>
       </c>
       <c r="M17">
-        <v>0.9984929305228004</v>
+        <v>0.98550143</v>
       </c>
       <c r="N17">
-        <v>0.9984929305228004</v>
+        <v>0.98550143</v>
       </c>
       <c r="O17">
-        <v>0.9988098747216566</v>
+        <v>0.9860982066666667</v>
       </c>
       <c r="P17">
-        <v>0.9998312493447679</v>
+        <v>0.9196438566666666</v>
       </c>
       <c r="Q17">
-        <v>0.9998312493447679</v>
+        <v>0.9196438566666666</v>
       </c>
       <c r="R17">
-        <v>1.000500408755752</v>
+        <v>0.8867150699999999</v>
       </c>
       <c r="S17">
-        <v>1.000500408755752</v>
+        <v>0.8867150699999999</v>
       </c>
       <c r="T17">
-        <v>0.9994881754130759</v>
+        <v>0.9693916383333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9956544766791313</v>
+        <v>0.8816847498630137</v>
       </c>
       <c r="D18">
-        <v>1.003218111259674</v>
+        <v>1.391275704136987</v>
       </c>
       <c r="E18">
-        <v>1.001699551507158</v>
+        <v>0.8823162567123286</v>
       </c>
       <c r="F18">
-        <v>0.9956544766791313</v>
+        <v>1.031670770958904</v>
       </c>
       <c r="G18">
-        <v>1.00980838366082</v>
+        <v>1.095531329452055</v>
       </c>
       <c r="H18">
-        <v>0.9985668291630945</v>
+        <v>0.9753982140000003</v>
       </c>
       <c r="I18">
-        <v>0.9998900165929933</v>
+        <v>0.8816847498630137</v>
       </c>
       <c r="J18">
-        <v>1.003218111259674</v>
+        <v>0.9753982140000003</v>
       </c>
       <c r="K18">
-        <v>0.9956544766791313</v>
+        <v>0.8816847498630137</v>
       </c>
       <c r="L18">
-        <v>1.001699551507158</v>
+        <v>1.095531329452055</v>
       </c>
       <c r="M18">
-        <v>1.002458831383416</v>
+        <v>1.035464771726027</v>
       </c>
       <c r="N18">
-        <v>1.002458831383416</v>
+        <v>1.035464771726027</v>
       </c>
       <c r="O18">
-        <v>1.001161497309975</v>
+        <v>0.9844152667214612</v>
       </c>
       <c r="P18">
-        <v>1.000190713148654</v>
+        <v>0.9842047644383562</v>
       </c>
       <c r="Q18">
-        <v>1.000190713148654</v>
+        <v>0.9842047644383562</v>
       </c>
       <c r="R18">
-        <v>0.9990566540312736</v>
+        <v>0.9585747607945206</v>
       </c>
       <c r="S18">
-        <v>0.9990566540312736</v>
+        <v>0.9585747607945206</v>
       </c>
       <c r="T18">
-        <v>1.001472894810479</v>
+        <v>1.042979504187215</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9815920966226858</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="D19">
-        <v>1.016966660699337</v>
+        <v>1.346592761</v>
       </c>
       <c r="E19">
-        <v>1.005458290341542</v>
+        <v>0.9135578252631577</v>
       </c>
       <c r="F19">
-        <v>0.9815920966226858</v>
+        <v>1.016213122105263</v>
       </c>
       <c r="G19">
-        <v>1.035525848225541</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="H19">
-        <v>0.9969288831100792</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="I19">
-        <v>0.9984874946428898</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="J19">
-        <v>1.016966660699337</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="K19">
-        <v>0.9815920966226858</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="L19">
-        <v>1.005458290341542</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="M19">
-        <v>1.01121247552044</v>
+        <v>1.059227491</v>
       </c>
       <c r="N19">
-        <v>1.01121247552044</v>
+        <v>1.059227491</v>
       </c>
       <c r="O19">
-        <v>1.00645127805032</v>
+        <v>1.010670935754386</v>
       </c>
       <c r="P19">
-        <v>1.001339015887855</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="Q19">
-        <v>1.001339015887855</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="R19">
-        <v>0.9964022860715629</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="S19">
-        <v>0.9964022860715629</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="T19">
-        <v>1.005826545607013</v>
+        <v>1.045588414359649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="D20">
+        <v>0.3509733176842105</v>
+      </c>
+      <c r="E20">
+        <v>1.409723701052632</v>
+      </c>
+      <c r="F20">
+        <v>0.8023913536842106</v>
+      </c>
+      <c r="G20">
+        <v>0.7061252994736843</v>
+      </c>
+      <c r="H20">
+        <v>1.772162625263158</v>
+      </c>
+      <c r="I20">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="J20">
+        <v>1.772162625263158</v>
+      </c>
+      <c r="K20">
+        <v>1.038299715263158</v>
+      </c>
+      <c r="L20">
+        <v>0.7061252994736843</v>
+      </c>
+      <c r="M20">
+        <v>1.239143962368421</v>
+      </c>
+      <c r="N20">
+        <v>1.239143962368421</v>
+      </c>
+      <c r="O20">
+        <v>1.296003875263158</v>
+      </c>
+      <c r="P20">
+        <v>1.17219588</v>
+      </c>
+      <c r="Q20">
+        <v>1.17219588</v>
+      </c>
+      <c r="R20">
+        <v>1.13872183881579</v>
+      </c>
+      <c r="S20">
+        <v>1.13872183881579</v>
+      </c>
+      <c r="T20">
+        <v>1.013279335403509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="D21">
+        <v>2.273757410017423</v>
+      </c>
+      <c r="E21">
+        <v>0.3739415155053741</v>
+      </c>
+      <c r="F21">
+        <v>1.254853269454525</v>
+      </c>
+      <c r="G21">
+        <v>1.411107354708371</v>
+      </c>
+      <c r="H21">
+        <v>0.1398369913072594</v>
+      </c>
+      <c r="I21">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="J21">
+        <v>0.1398369913072594</v>
+      </c>
+      <c r="K21">
+        <v>0.8731923049019394</v>
+      </c>
+      <c r="L21">
+        <v>1.411107354708371</v>
+      </c>
+      <c r="M21">
+        <v>0.7754721730078151</v>
+      </c>
+      <c r="N21">
+        <v>0.7754721730078151</v>
+      </c>
+      <c r="O21">
+        <v>0.6416286205070014</v>
+      </c>
+      <c r="P21">
+        <v>0.8080455503058565</v>
+      </c>
+      <c r="Q21">
+        <v>0.8080455503058567</v>
+      </c>
+      <c r="R21">
+        <v>0.8243322389548773</v>
+      </c>
+      <c r="S21">
+        <v>0.8243322389548773</v>
+      </c>
+      <c r="T21">
+        <v>1.054448140982482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="D22">
+        <v>0.9754516980295287</v>
+      </c>
+      <c r="E22">
+        <v>0.8176698907503707</v>
+      </c>
+      <c r="F22">
+        <v>1.102555332185788</v>
+      </c>
+      <c r="G22">
+        <v>1.04786352455284</v>
+      </c>
+      <c r="H22">
+        <v>0.539790818061379</v>
+      </c>
+      <c r="I22">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="J22">
+        <v>0.539790818061379</v>
+      </c>
+      <c r="K22">
+        <v>1.236171008120947</v>
+      </c>
+      <c r="L22">
+        <v>1.04786352455284</v>
+      </c>
+      <c r="M22">
+        <v>0.7938271713071092</v>
+      </c>
+      <c r="N22">
+        <v>0.7938271713071092</v>
+      </c>
+      <c r="O22">
+        <v>0.8017747444548631</v>
+      </c>
+      <c r="P22">
+        <v>0.9412751169117217</v>
+      </c>
+      <c r="Q22">
+        <v>0.9412751169117218</v>
+      </c>
+      <c r="R22">
+        <v>1.014999089714028</v>
+      </c>
+      <c r="S22">
+        <v>1.014999089714028</v>
+      </c>
+      <c r="T22">
+        <v>0.9532503786168088</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9422085480144063</v>
+      </c>
+      <c r="D23">
+        <v>1.012390764726488</v>
+      </c>
+      <c r="E23">
+        <v>0.9974542226888108</v>
+      </c>
+      <c r="F23">
+        <v>1.011593383523964</v>
+      </c>
+      <c r="G23">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="H23">
+        <v>0.9318562016855163</v>
+      </c>
+      <c r="I23">
+        <v>0.9422085480144063</v>
+      </c>
+      <c r="J23">
+        <v>0.9318562016855163</v>
+      </c>
+      <c r="K23">
+        <v>0.9422085480144063</v>
+      </c>
+      <c r="L23">
+        <v>1.039747067715987</v>
+      </c>
+      <c r="M23">
+        <v>0.9858016347007517</v>
+      </c>
+      <c r="N23">
+        <v>0.9858016347007517</v>
+      </c>
+      <c r="O23">
+        <v>0.9896858306967714</v>
+      </c>
+      <c r="P23">
+        <v>0.9712706058053032</v>
+      </c>
+      <c r="Q23">
+        <v>0.9712706058053033</v>
+      </c>
+      <c r="R23">
+        <v>0.9640050913575791</v>
+      </c>
+      <c r="S23">
+        <v>0.9640050913575791</v>
+      </c>
+      <c r="T23">
+        <v>0.989208364725862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="D24">
+        <v>1.02319818206806</v>
+      </c>
+      <c r="E24">
+        <v>0.9928450615510304</v>
+      </c>
+      <c r="F24">
+        <v>0.9890386921676247</v>
+      </c>
+      <c r="G24">
+        <v>0.9601667937851361</v>
+      </c>
+      <c r="H24">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="I24">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="J24">
+        <v>1.067964252920152</v>
+      </c>
+      <c r="K24">
+        <v>1.059548244205389</v>
+      </c>
+      <c r="L24">
+        <v>0.9601667937851361</v>
+      </c>
+      <c r="M24">
+        <v>1.014065523352644</v>
+      </c>
+      <c r="N24">
+        <v>1.014065523352644</v>
+      </c>
+      <c r="O24">
+        <v>1.00699203608544</v>
+      </c>
+      <c r="P24">
+        <v>1.029226430303559</v>
+      </c>
+      <c r="Q24">
+        <v>1.029226430303559</v>
+      </c>
+      <c r="R24">
+        <v>1.036806883779016</v>
+      </c>
+      <c r="S24">
+        <v>1.036806883779016</v>
+      </c>
+      <c r="T24">
+        <v>1.015460204449565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="D25">
+        <v>0.2116844377548642</v>
+      </c>
+      <c r="E25">
+        <v>1.818480992269227</v>
+      </c>
+      <c r="F25">
+        <v>0.6083880670441053</v>
+      </c>
+      <c r="G25">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="H25">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="I25">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="J25">
+        <v>2.660839704405878</v>
+      </c>
+      <c r="K25">
+        <v>0.4955235286572381</v>
+      </c>
+      <c r="L25">
+        <v>0.6548451648534876</v>
+      </c>
+      <c r="M25">
+        <v>1.657842434629683</v>
+      </c>
+      <c r="N25">
+        <v>1.657842434629683</v>
+      </c>
+      <c r="O25">
+        <v>1.711388620509531</v>
+      </c>
+      <c r="P25">
+        <v>1.270402799305534</v>
+      </c>
+      <c r="Q25">
+        <v>1.270402799305534</v>
+      </c>
+      <c r="R25">
+        <v>1.07668298164346</v>
+      </c>
+      <c r="S25">
+        <v>1.07668298164346</v>
+      </c>
+      <c r="T25">
+        <v>1.0749603158308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="D26">
+        <v>0.6337144484550303</v>
+      </c>
+      <c r="E26">
+        <v>1.22481930614626</v>
+      </c>
+      <c r="F26">
+        <v>0.9144646330804617</v>
+      </c>
+      <c r="G26">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="H26">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="I26">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="J26">
+        <v>1.268221409307049</v>
+      </c>
+      <c r="K26">
+        <v>0.9281320838650573</v>
+      </c>
+      <c r="L26">
+        <v>0.9088917048708907</v>
+      </c>
+      <c r="M26">
+        <v>1.08855655708897</v>
+      </c>
+      <c r="N26">
+        <v>1.08855655708897</v>
+      </c>
+      <c r="O26">
+        <v>1.1339774734414</v>
+      </c>
+      <c r="P26">
+        <v>1.035081732680999</v>
+      </c>
+      <c r="Q26">
+        <v>1.035081732680999</v>
+      </c>
+      <c r="R26">
+        <v>1.008344320477014</v>
+      </c>
+      <c r="S26">
+        <v>1.008344320477014</v>
+      </c>
+      <c r="T26">
+        <v>0.979707264287458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9844722257665109</v>
+      </c>
+      <c r="D27">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="E27">
+        <v>0.9836640882516778</v>
+      </c>
+      <c r="F27">
+        <v>1.008794971130202</v>
+      </c>
+      <c r="G27">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="H27">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="I27">
+        <v>0.9844722257665109</v>
+      </c>
+      <c r="J27">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="K27">
+        <v>0.9844722257665109</v>
+      </c>
+      <c r="L27">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="M27">
+        <v>0.9894139271704929</v>
+      </c>
+      <c r="N27">
+        <v>0.9894139271704929</v>
+      </c>
+      <c r="O27">
+        <v>0.9874973141975545</v>
+      </c>
+      <c r="P27">
+        <v>0.9877666933691657</v>
+      </c>
+      <c r="Q27">
+        <v>0.9877666933691657</v>
+      </c>
+      <c r="R27">
+        <v>0.986943076468502</v>
+      </c>
+      <c r="S27">
+        <v>0.986943076468502</v>
+      </c>
+      <c r="T27">
+        <v>0.9985586591028334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.8680072136110714</v>
+      </c>
+      <c r="D28">
+        <v>1.064326379292296</v>
+      </c>
+      <c r="E28">
+        <v>1.06492736964076</v>
+      </c>
+      <c r="F28">
+        <v>0.9606069398411894</v>
+      </c>
+      <c r="G28">
+        <v>0.9987639507733537</v>
+      </c>
+      <c r="H28">
+        <v>1.195147153558401</v>
+      </c>
+      <c r="I28">
+        <v>0.8680072136110714</v>
+      </c>
+      <c r="J28">
+        <v>1.195147153558401</v>
+      </c>
+      <c r="K28">
+        <v>0.8680072136110714</v>
+      </c>
+      <c r="L28">
+        <v>0.9987639507733537</v>
+      </c>
+      <c r="M28">
+        <v>1.096955552165877</v>
+      </c>
+      <c r="N28">
+        <v>1.096955552165877</v>
+      </c>
+      <c r="O28">
+        <v>1.086279491324172</v>
+      </c>
+      <c r="P28">
+        <v>1.020639439314275</v>
+      </c>
+      <c r="Q28">
+        <v>1.020639439314275</v>
+      </c>
+      <c r="R28">
+        <v>0.9824813828884744</v>
+      </c>
+      <c r="S28">
+        <v>0.9824813828884744</v>
+      </c>
+      <c r="T28">
+        <v>1.025296501119512</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7688634923958982</v>
+      </c>
+      <c r="D29">
+        <v>0.9962733003307934</v>
+      </c>
+      <c r="E29">
+        <v>1.11936980275791</v>
+      </c>
+      <c r="F29">
+        <v>0.9508080658934982</v>
+      </c>
+      <c r="G29">
+        <v>1.025579911626161</v>
+      </c>
+      <c r="H29">
+        <v>1.214671865947379</v>
+      </c>
+      <c r="I29">
+        <v>0.7688634923958982</v>
+      </c>
+      <c r="J29">
+        <v>1.214671865947379</v>
+      </c>
+      <c r="K29">
+        <v>0.7688634923958982</v>
+      </c>
+      <c r="L29">
+        <v>1.025579911626161</v>
+      </c>
+      <c r="M29">
+        <v>1.12012588878677</v>
+      </c>
+      <c r="N29">
+        <v>1.12012588878677</v>
+      </c>
+      <c r="O29">
+        <v>1.119873860110483</v>
+      </c>
+      <c r="P29">
+        <v>1.003038423323146</v>
+      </c>
+      <c r="Q29">
+        <v>1.003038423323146</v>
+      </c>
+      <c r="R29">
+        <v>0.9444946905913342</v>
+      </c>
+      <c r="S29">
+        <v>0.9444946905913342</v>
+      </c>
+      <c r="T29">
+        <v>1.01259440649194</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8987220453900814</v>
+        <v>1.096117383312877</v>
       </c>
       <c r="D4">
-        <v>0.8601225479086256</v>
+        <v>0.983127818419038</v>
       </c>
       <c r="E4">
-        <v>1.157281997926195</v>
+        <v>0.9537162858778737</v>
       </c>
       <c r="F4">
-        <v>0.9223018696097537</v>
+        <v>1.021676643816061</v>
       </c>
       <c r="G4">
-        <v>0.932105162961229</v>
+        <v>0.9915298292803949</v>
       </c>
       <c r="H4">
-        <v>1.344285839179582</v>
+        <v>0.897536944033534</v>
       </c>
       <c r="I4">
-        <v>0.8987220453900814</v>
+        <v>1.096117383312877</v>
       </c>
       <c r="J4">
-        <v>1.344285839179582</v>
+        <v>0.897536944033534</v>
       </c>
       <c r="K4">
-        <v>0.8987220453900814</v>
+        <v>1.096117383312877</v>
       </c>
       <c r="L4">
-        <v>0.932105162961229</v>
+        <v>0.9915298292803949</v>
       </c>
       <c r="M4">
-        <v>1.138195501070405</v>
+        <v>0.9445333866569645</v>
       </c>
       <c r="N4">
-        <v>1.138195501070405</v>
+        <v>0.9445333866569645</v>
       </c>
       <c r="O4">
-        <v>1.144557666689002</v>
+        <v>0.9475943530639342</v>
       </c>
       <c r="P4">
-        <v>1.058371015843631</v>
+        <v>0.9950613855422686</v>
       </c>
       <c r="Q4">
-        <v>1.058371015843631</v>
+        <v>0.9950613855422686</v>
       </c>
       <c r="R4">
-        <v>1.018458773230243</v>
+        <v>1.020325384984921</v>
       </c>
       <c r="S4">
-        <v>1.018458773230243</v>
+        <v>1.020325384984921</v>
       </c>
       <c r="T4">
-        <v>1.019136577162578</v>
+        <v>0.9906174841232964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.115317227442367</v>
+        <v>0.941506407375968</v>
       </c>
       <c r="D5">
-        <v>0.9758495867896232</v>
+        <v>0.3182560386092583</v>
       </c>
       <c r="E5">
-        <v>0.9490212594380415</v>
+        <v>1.488502108589953</v>
       </c>
       <c r="F5">
-        <v>1.023070324841498</v>
+        <v>0.7655166793378652</v>
       </c>
       <c r="G5">
-        <v>0.9858441337463973</v>
+        <v>0.6930968999276081</v>
       </c>
       <c r="H5">
-        <v>0.8911218319524506</v>
+        <v>1.933744648452394</v>
       </c>
       <c r="I5">
-        <v>1.115317227442367</v>
+        <v>0.941506407375968</v>
       </c>
       <c r="J5">
-        <v>0.8911218319524506</v>
+        <v>1.933744648452394</v>
       </c>
       <c r="K5">
-        <v>1.115317227442367</v>
+        <v>0.941506407375968</v>
       </c>
       <c r="L5">
-        <v>0.9858441337463973</v>
+        <v>0.6930968999276081</v>
       </c>
       <c r="M5">
-        <v>0.938482982849424</v>
+        <v>1.313420774190001</v>
       </c>
       <c r="N5">
-        <v>0.938482982849424</v>
+        <v>1.313420774190001</v>
       </c>
       <c r="O5">
-        <v>0.9419957417122965</v>
+        <v>1.371781218989985</v>
       </c>
       <c r="P5">
-        <v>0.9974277310470715</v>
+        <v>1.189449318585323</v>
       </c>
       <c r="Q5">
-        <v>0.9974277310470715</v>
+        <v>1.189449318585323</v>
       </c>
       <c r="R5">
-        <v>1.026900105145895</v>
+        <v>1.127463590782984</v>
       </c>
       <c r="S5">
-        <v>1.026900105145895</v>
+        <v>1.127463590782984</v>
       </c>
       <c r="T5">
-        <v>0.9900373940350627</v>
+        <v>1.023437130382174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.540010091338838</v>
+        <v>0.8987220453900814</v>
       </c>
       <c r="D6">
-        <v>0.8255684598171467</v>
+        <v>0.8601225479086256</v>
       </c>
       <c r="E6">
-        <v>0.7990690501455756</v>
+        <v>1.157281997926195</v>
       </c>
       <c r="F6">
-        <v>1.090393695065602</v>
+        <v>0.9223018696097537</v>
       </c>
       <c r="G6">
-        <v>0.9101225039808432</v>
+        <v>0.932105162961229</v>
       </c>
       <c r="H6">
-        <v>0.5568161651259612</v>
+        <v>1.344285839179582</v>
       </c>
       <c r="I6">
-        <v>1.540010091338838</v>
+        <v>0.8987220453900814</v>
       </c>
       <c r="J6">
-        <v>0.5568161651259612</v>
+        <v>1.344285839179582</v>
       </c>
       <c r="K6">
-        <v>1.540010091338838</v>
+        <v>0.8987220453900814</v>
       </c>
       <c r="L6">
-        <v>0.9101225039808432</v>
+        <v>0.932105162961229</v>
       </c>
       <c r="M6">
-        <v>0.7334693345534022</v>
+        <v>1.138195501070405</v>
       </c>
       <c r="N6">
-        <v>0.7334693345534022</v>
+        <v>1.138195501070405</v>
       </c>
       <c r="O6">
-        <v>0.75533590641746</v>
+        <v>1.144557666689002</v>
       </c>
       <c r="P6">
-        <v>1.002316253481881</v>
+        <v>1.058371015843631</v>
       </c>
       <c r="Q6">
-        <v>1.002316253481881</v>
+        <v>1.058371015843631</v>
       </c>
       <c r="R6">
-        <v>1.13673971294612</v>
+        <v>1.018458773230243</v>
       </c>
       <c r="S6">
-        <v>1.13673971294612</v>
+        <v>1.018458773230243</v>
       </c>
       <c r="T6">
-        <v>0.9536633275789944</v>
+        <v>1.019136577162578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9950591476117272</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="D7">
-        <v>1.013792922177559</v>
+        <v>0.9758495867896232</v>
       </c>
       <c r="E7">
-        <v>0.9967062548095341</v>
+        <v>0.9490212594380415</v>
       </c>
       <c r="F7">
-        <v>1.000597012393315</v>
+        <v>1.023070324841498</v>
       </c>
       <c r="G7">
-        <v>1.002946112493005</v>
+        <v>0.9858441337463973</v>
       </c>
       <c r="H7">
-        <v>1.001476203662625</v>
+        <v>0.8911218319524506</v>
       </c>
       <c r="I7">
-        <v>0.9950591476117272</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="J7">
-        <v>1.001476203662625</v>
+        <v>0.8911218319524506</v>
       </c>
       <c r="K7">
-        <v>0.9950591476117272</v>
+        <v>1.115317227442367</v>
       </c>
       <c r="L7">
-        <v>1.002946112493005</v>
+        <v>0.9858441337463973</v>
       </c>
       <c r="M7">
-        <v>1.002211158077815</v>
+        <v>0.938482982849424</v>
       </c>
       <c r="N7">
-        <v>1.002211158077815</v>
+        <v>0.938482982849424</v>
       </c>
       <c r="O7">
-        <v>1.000376190321721</v>
+        <v>0.9419957417122965</v>
       </c>
       <c r="P7">
-        <v>0.9998271545891191</v>
+        <v>0.9974277310470715</v>
       </c>
       <c r="Q7">
-        <v>0.9998271545891191</v>
+        <v>0.9974277310470715</v>
       </c>
       <c r="R7">
-        <v>0.9986351528447711</v>
+        <v>1.026900105145895</v>
       </c>
       <c r="S7">
-        <v>0.9986351528447711</v>
+        <v>1.026900105145895</v>
       </c>
       <c r="T7">
-        <v>1.001762942191294</v>
+        <v>0.9900373940350627</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002507886988702</v>
+        <v>1.540010091338838</v>
       </c>
       <c r="D8">
-        <v>0.9975293563510699</v>
+        <v>0.8255684598171467</v>
       </c>
       <c r="E8">
-        <v>0.9994437631193687</v>
+        <v>0.7990690501455756</v>
       </c>
       <c r="F8">
-        <v>1.000462184973712</v>
+        <v>1.090393695065602</v>
       </c>
       <c r="G8">
-        <v>0.9996314345506389</v>
+        <v>0.9101225039808432</v>
       </c>
       <c r="H8">
-        <v>0.9973544264949608</v>
+        <v>0.5568161651259612</v>
       </c>
       <c r="I8">
-        <v>1.002507886988702</v>
+        <v>1.540010091338838</v>
       </c>
       <c r="J8">
-        <v>0.9973544264949608</v>
+        <v>0.5568161651259612</v>
       </c>
       <c r="K8">
-        <v>1.002507886988702</v>
+        <v>1.540010091338838</v>
       </c>
       <c r="L8">
-        <v>0.9996314345506389</v>
+        <v>0.9101225039808432</v>
       </c>
       <c r="M8">
-        <v>0.9984929305227999</v>
+        <v>0.7334693345534022</v>
       </c>
       <c r="N8">
-        <v>0.9984929305227999</v>
+        <v>0.7334693345534022</v>
       </c>
       <c r="O8">
-        <v>0.9988098747216562</v>
+        <v>0.75533590641746</v>
       </c>
       <c r="P8">
-        <v>0.9998312493447674</v>
+        <v>1.002316253481881</v>
       </c>
       <c r="Q8">
-        <v>0.9998312493447673</v>
+        <v>1.002316253481881</v>
       </c>
       <c r="R8">
-        <v>1.000500408755751</v>
+        <v>1.13673971294612</v>
       </c>
       <c r="S8">
-        <v>1.000500408755751</v>
+        <v>1.13673971294612</v>
       </c>
       <c r="T8">
-        <v>0.9994881754130754</v>
+        <v>0.9536633275789944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9911777093690577</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="D9">
-        <v>1.031161976488954</v>
+        <v>1.013792922177559</v>
       </c>
       <c r="E9">
-        <v>0.9903266645286525</v>
+        <v>0.9967062548095341</v>
       </c>
       <c r="F9">
-        <v>1.002632416418542</v>
+        <v>1.000597012393315</v>
       </c>
       <c r="G9">
-        <v>1.007544156624389</v>
+        <v>1.002946112493005</v>
       </c>
       <c r="H9">
-        <v>0.9976045975595175</v>
+        <v>1.001476203662625</v>
       </c>
       <c r="I9">
-        <v>0.9911777093690577</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="J9">
-        <v>0.9976045975595175</v>
+        <v>1.001476203662625</v>
       </c>
       <c r="K9">
-        <v>0.9911777093690577</v>
+        <v>0.9950591476117272</v>
       </c>
       <c r="L9">
-        <v>1.007544156624389</v>
+        <v>1.002946112493005</v>
       </c>
       <c r="M9">
-        <v>1.002574377091953</v>
+        <v>1.002211158077815</v>
       </c>
       <c r="N9">
-        <v>1.002574377091953</v>
+        <v>1.002211158077815</v>
       </c>
       <c r="O9">
-        <v>0.9984918062375195</v>
+        <v>1.000376190321721</v>
       </c>
       <c r="P9">
-        <v>0.9987754878509879</v>
+        <v>0.9998271545891191</v>
       </c>
       <c r="Q9">
-        <v>0.9987754878509879</v>
+        <v>0.9998271545891191</v>
       </c>
       <c r="R9">
-        <v>0.9968760432305054</v>
+        <v>0.9986351528447711</v>
       </c>
       <c r="S9">
-        <v>0.9968760432305054</v>
+        <v>0.9986351528447711</v>
       </c>
       <c r="T9">
-        <v>1.003407920164852</v>
+        <v>1.001762942191294</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.557597903844996</v>
+        <v>1.002507886988702</v>
       </c>
       <c r="D10">
-        <v>0.8177403957832933</v>
+        <v>0.9975293563510699</v>
       </c>
       <c r="E10">
-        <v>0.7953191871941194</v>
+        <v>0.9994437631193687</v>
       </c>
       <c r="F10">
-        <v>1.091484820463565</v>
+        <v>1.000462184973712</v>
       </c>
       <c r="G10">
-        <v>0.9045185774975608</v>
+        <v>0.9996314345506389</v>
       </c>
       <c r="H10">
-        <v>0.5519817374957835</v>
+        <v>0.9973544264949608</v>
       </c>
       <c r="I10">
-        <v>1.557597903844996</v>
+        <v>1.002507886988702</v>
       </c>
       <c r="J10">
-        <v>0.5519817374957835</v>
+        <v>0.9973544264949608</v>
       </c>
       <c r="K10">
-        <v>1.557597903844996</v>
+        <v>1.002507886988702</v>
       </c>
       <c r="L10">
-        <v>0.9045185774975608</v>
+        <v>0.9996314345506389</v>
       </c>
       <c r="M10">
-        <v>0.7282501574966722</v>
+        <v>0.9984929305227999</v>
       </c>
       <c r="N10">
-        <v>0.7282501574966722</v>
+        <v>0.9984929305227999</v>
       </c>
       <c r="O10">
-        <v>0.7506065007291546</v>
+        <v>0.9988098747216562</v>
       </c>
       <c r="P10">
-        <v>1.004699406279447</v>
+        <v>0.9998312493447674</v>
       </c>
       <c r="Q10">
-        <v>1.004699406279447</v>
+        <v>0.9998312493447673</v>
       </c>
       <c r="R10">
-        <v>1.142924030670834</v>
+        <v>1.000500408755751</v>
       </c>
       <c r="S10">
-        <v>1.142924030670834</v>
+        <v>1.000500408755751</v>
       </c>
       <c r="T10">
-        <v>0.9531071037132195</v>
+        <v>0.9994881754130754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9119718143625501</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="D11">
-        <v>0.7366980084685932</v>
+        <v>1.031161976488954</v>
       </c>
       <c r="E11">
-        <v>1.2242349798042</v>
+        <v>0.9903266645286525</v>
       </c>
       <c r="F11">
-        <v>0.8926288926563125</v>
+        <v>1.002632416418542</v>
       </c>
       <c r="G11">
-        <v>0.8846958310364982</v>
+        <v>1.007544156624389</v>
       </c>
       <c r="H11">
-        <v>1.449965667946476</v>
+        <v>0.9976045975595175</v>
       </c>
       <c r="I11">
-        <v>0.9119718143625501</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="J11">
-        <v>1.449965667946476</v>
+        <v>0.9976045975595175</v>
       </c>
       <c r="K11">
-        <v>0.9119718143625501</v>
+        <v>0.9911777093690577</v>
       </c>
       <c r="L11">
-        <v>0.8846958310364982</v>
+        <v>1.007544156624389</v>
       </c>
       <c r="M11">
-        <v>1.167330749491487</v>
+        <v>1.002574377091953</v>
       </c>
       <c r="N11">
-        <v>1.167330749491487</v>
+        <v>1.002574377091953</v>
       </c>
       <c r="O11">
-        <v>1.186298826262391</v>
+        <v>0.9984918062375195</v>
       </c>
       <c r="P11">
-        <v>1.082211104448508</v>
+        <v>0.9987754878509879</v>
       </c>
       <c r="Q11">
-        <v>1.082211104448508</v>
+        <v>0.9987754878509879</v>
       </c>
       <c r="R11">
-        <v>1.039651281927019</v>
+        <v>0.9968760432305054</v>
       </c>
       <c r="S11">
-        <v>1.039651281927019</v>
+        <v>0.9968760432305054</v>
       </c>
       <c r="T11">
-        <v>1.016699199045772</v>
+        <v>1.003407920164852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.164754340652633</v>
+        <v>1.557597903844996</v>
       </c>
       <c r="D12">
-        <v>0.9328931536547368</v>
+        <v>0.8177403957832933</v>
       </c>
       <c r="E12">
-        <v>0.9474014844526308</v>
+        <v>0.7953191871941194</v>
       </c>
       <c r="F12">
-        <v>1.02359396523158</v>
+        <v>1.091484820463565</v>
       </c>
       <c r="G12">
-        <v>0.9665320305578933</v>
+        <v>0.9045185774975608</v>
       </c>
       <c r="H12">
-        <v>0.8816107053305275</v>
+        <v>0.5519817374957835</v>
       </c>
       <c r="I12">
-        <v>1.164754340652633</v>
+        <v>1.557597903844996</v>
       </c>
       <c r="J12">
-        <v>0.8816107053305275</v>
+        <v>0.5519817374957835</v>
       </c>
       <c r="K12">
-        <v>1.164754340652633</v>
+        <v>1.557597903844996</v>
       </c>
       <c r="L12">
-        <v>0.9665320305578933</v>
+        <v>0.9045185774975608</v>
       </c>
       <c r="M12">
-        <v>0.9240713679442104</v>
+        <v>0.7282501574966722</v>
       </c>
       <c r="N12">
-        <v>0.9240713679442104</v>
+        <v>0.7282501574966722</v>
       </c>
       <c r="O12">
-        <v>0.9318480734470173</v>
+        <v>0.7506065007291546</v>
       </c>
       <c r="P12">
-        <v>1.004299025513684</v>
+        <v>1.004699406279447</v>
       </c>
       <c r="Q12">
-        <v>1.004299025513684</v>
+        <v>1.004699406279447</v>
       </c>
       <c r="R12">
-        <v>1.044412854298421</v>
+        <v>1.142924030670834</v>
       </c>
       <c r="S12">
-        <v>1.044412854298421</v>
+        <v>1.142924030670834</v>
       </c>
       <c r="T12">
-        <v>0.9861309466466669</v>
+        <v>0.9531071037132195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9730401069195072</v>
+        <v>0.9119718143625501</v>
       </c>
       <c r="D13">
-        <v>0.9783236853278542</v>
+        <v>0.7366980084685932</v>
       </c>
       <c r="E13">
-        <v>1.034647169740668</v>
+        <v>1.2242349798042</v>
       </c>
       <c r="F13">
-        <v>0.9818278515284242</v>
+        <v>0.8926288926563125</v>
       </c>
       <c r="G13">
-        <v>0.9853695923320617</v>
+        <v>0.8846958310364982</v>
       </c>
       <c r="H13">
-        <v>1.084103838478959</v>
+        <v>1.449965667946476</v>
       </c>
       <c r="I13">
-        <v>0.9730401069195072</v>
+        <v>0.9119718143625501</v>
       </c>
       <c r="J13">
-        <v>1.084103838478959</v>
+        <v>1.449965667946476</v>
       </c>
       <c r="K13">
-        <v>0.9730401069195072</v>
+        <v>0.9119718143625501</v>
       </c>
       <c r="L13">
-        <v>0.9853695923320617</v>
+        <v>0.8846958310364982</v>
       </c>
       <c r="M13">
-        <v>1.03473671540551</v>
+        <v>1.167330749491487</v>
       </c>
       <c r="N13">
-        <v>1.03473671540551</v>
+        <v>1.167330749491487</v>
       </c>
       <c r="O13">
-        <v>1.034706866850563</v>
+        <v>1.186298826262391</v>
       </c>
       <c r="P13">
-        <v>1.014171179243509</v>
+        <v>1.082211104448508</v>
       </c>
       <c r="Q13">
-        <v>1.014171179243509</v>
+        <v>1.082211104448508</v>
       </c>
       <c r="R13">
-        <v>1.003888411162509</v>
+        <v>1.039651281927019</v>
       </c>
       <c r="S13">
-        <v>1.003888411162509</v>
+        <v>1.039651281927019</v>
       </c>
       <c r="T13">
-        <v>1.006218707387912</v>
+        <v>1.016699199045772</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.9813918</v>
+        <v>1.164754340652633</v>
       </c>
       <c r="D14">
-        <v>0.6692091899999988</v>
+        <v>0.9328931536547368</v>
       </c>
       <c r="E14">
-        <v>0.6454245799999989</v>
+        <v>0.9474014844526308</v>
       </c>
       <c r="F14">
-        <v>1.158546599999999</v>
+        <v>1.02359396523158</v>
       </c>
       <c r="G14">
-        <v>0.8289786500000015</v>
+        <v>0.9665320305578933</v>
       </c>
       <c r="H14">
-        <v>0.2188589699999998</v>
+        <v>0.8816107053305275</v>
       </c>
       <c r="I14">
-        <v>1.9813918</v>
+        <v>1.164754340652633</v>
       </c>
       <c r="J14">
-        <v>0.2188589699999998</v>
+        <v>0.8816107053305275</v>
       </c>
       <c r="K14">
-        <v>1.9813918</v>
+        <v>1.164754340652633</v>
       </c>
       <c r="L14">
-        <v>0.8289786500000015</v>
+        <v>0.9665320305578933</v>
       </c>
       <c r="M14">
-        <v>0.5239188100000006</v>
+        <v>0.9240713679442104</v>
       </c>
       <c r="N14">
-        <v>0.5239188100000006</v>
+        <v>0.9240713679442104</v>
       </c>
       <c r="O14">
-        <v>0.5644207333333334</v>
+        <v>0.9318480734470173</v>
       </c>
       <c r="P14">
-        <v>1.00974314</v>
+        <v>1.004299025513684</v>
       </c>
       <c r="Q14">
-        <v>1.009743140000001</v>
+        <v>1.004299025513684</v>
       </c>
       <c r="R14">
-        <v>1.252655305</v>
+        <v>1.044412854298421</v>
       </c>
       <c r="S14">
-        <v>1.252655305</v>
+        <v>1.044412854298421</v>
       </c>
       <c r="T14">
-        <v>0.917068298333333</v>
+        <v>0.9861309466466669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.9813918</v>
+        <v>0.9730401069195072</v>
       </c>
       <c r="D15">
-        <v>0.66920919</v>
+        <v>0.9783236853278542</v>
       </c>
       <c r="E15">
-        <v>0.6454245799999999</v>
+        <v>1.034647169740668</v>
       </c>
       <c r="F15">
-        <v>1.1585466</v>
+        <v>0.9818278515284242</v>
       </c>
       <c r="G15">
-        <v>0.8289786500000002</v>
+        <v>0.9853695923320617</v>
       </c>
       <c r="H15">
-        <v>0.21885897</v>
+        <v>1.084103838478959</v>
       </c>
       <c r="I15">
-        <v>1.9813918</v>
+        <v>0.9730401069195072</v>
       </c>
       <c r="J15">
-        <v>0.21885897</v>
+        <v>1.084103838478959</v>
       </c>
       <c r="K15">
-        <v>1.9813918</v>
+        <v>0.9730401069195072</v>
       </c>
       <c r="L15">
-        <v>0.8289786500000002</v>
+        <v>0.9853695923320617</v>
       </c>
       <c r="M15">
-        <v>0.5239188100000001</v>
+        <v>1.03473671540551</v>
       </c>
       <c r="N15">
-        <v>0.5239188100000001</v>
+        <v>1.03473671540551</v>
       </c>
       <c r="O15">
-        <v>0.5644207333333333</v>
+        <v>1.034706866850563</v>
       </c>
       <c r="P15">
-        <v>1.00974314</v>
+        <v>1.014171179243509</v>
       </c>
       <c r="Q15">
-        <v>1.00974314</v>
+        <v>1.014171179243509</v>
       </c>
       <c r="R15">
-        <v>1.252655305</v>
+        <v>1.003888411162509</v>
       </c>
       <c r="S15">
-        <v>1.252655305</v>
+        <v>1.003888411162509</v>
       </c>
       <c r="T15">
-        <v>0.9170682983333333</v>
+        <v>1.006218707387912</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.21885897</v>
+        <v>1.9813918</v>
       </c>
       <c r="D16">
-        <v>0.054357122</v>
+        <v>0.6692091899999988</v>
       </c>
       <c r="E16">
-        <v>2.1879417</v>
+        <v>0.6454245799999989</v>
       </c>
       <c r="F16">
-        <v>0.3808422</v>
+        <v>1.158546599999999</v>
       </c>
       <c r="G16">
-        <v>0.44908907</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="H16">
-        <v>3.9393531</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="I16">
-        <v>0.21885897</v>
+        <v>1.9813918</v>
       </c>
       <c r="J16">
-        <v>3.9393531</v>
+        <v>0.2188589699999998</v>
       </c>
       <c r="K16">
-        <v>0.21885897</v>
+        <v>1.9813918</v>
       </c>
       <c r="L16">
-        <v>0.44908907</v>
+        <v>0.8289786500000015</v>
       </c>
       <c r="M16">
-        <v>2.194221085</v>
+        <v>0.5239188100000006</v>
       </c>
       <c r="N16">
-        <v>2.194221085</v>
+        <v>0.5239188100000006</v>
       </c>
       <c r="O16">
-        <v>2.192127956666667</v>
+        <v>0.5644207333333334</v>
       </c>
       <c r="P16">
-        <v>1.535767046666667</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q16">
-        <v>1.535767046666667</v>
+        <v>1.009743140000001</v>
       </c>
       <c r="R16">
-        <v>1.2065400275</v>
+        <v>1.252655305</v>
       </c>
       <c r="S16">
-        <v>1.2065400275</v>
+        <v>1.252655305</v>
       </c>
       <c r="T16">
-        <v>1.205073693666667</v>
+        <v>0.917068298333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7879287099999999</v>
+        <v>1.9813918</v>
       </c>
       <c r="D17">
-        <v>1.0292497</v>
+        <v>0.66920919</v>
       </c>
       <c r="E17">
-        <v>0.98729176</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="F17">
-        <v>1.0408768</v>
+        <v>1.1585466</v>
       </c>
       <c r="G17">
-        <v>1.1499929</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="H17">
-        <v>0.82100996</v>
+        <v>0.21885897</v>
       </c>
       <c r="I17">
-        <v>0.7879287099999999</v>
+        <v>1.9813918</v>
       </c>
       <c r="J17">
-        <v>0.82100996</v>
+        <v>0.21885897</v>
       </c>
       <c r="K17">
-        <v>0.7879287099999999</v>
+        <v>1.9813918</v>
       </c>
       <c r="L17">
-        <v>1.1499929</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M17">
-        <v>0.98550143</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N17">
-        <v>0.98550143</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O17">
-        <v>0.9860982066666667</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P17">
-        <v>0.9196438566666666</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q17">
-        <v>0.9196438566666666</v>
+        <v>1.00974314</v>
       </c>
       <c r="R17">
-        <v>0.8867150699999999</v>
+        <v>1.252655305</v>
       </c>
       <c r="S17">
-        <v>0.8867150699999999</v>
+        <v>1.252655305</v>
       </c>
       <c r="T17">
-        <v>0.9693916383333333</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8816847498630137</v>
+        <v>0.21885897</v>
       </c>
       <c r="D18">
-        <v>1.391275704136987</v>
+        <v>0.054357122</v>
       </c>
       <c r="E18">
-        <v>0.8823162567123286</v>
+        <v>2.1879417</v>
       </c>
       <c r="F18">
-        <v>1.031670770958904</v>
+        <v>0.3808422</v>
       </c>
       <c r="G18">
-        <v>1.095531329452055</v>
+        <v>0.44908907</v>
       </c>
       <c r="H18">
-        <v>0.9753982140000003</v>
+        <v>3.9393531</v>
       </c>
       <c r="I18">
-        <v>0.8816847498630137</v>
+        <v>0.21885897</v>
       </c>
       <c r="J18">
-        <v>0.9753982140000003</v>
+        <v>3.9393531</v>
       </c>
       <c r="K18">
-        <v>0.8816847498630137</v>
+        <v>0.21885897</v>
       </c>
       <c r="L18">
-        <v>1.095531329452055</v>
+        <v>0.44908907</v>
       </c>
       <c r="M18">
-        <v>1.035464771726027</v>
+        <v>2.194221085</v>
       </c>
       <c r="N18">
-        <v>1.035464771726027</v>
+        <v>2.194221085</v>
       </c>
       <c r="O18">
-        <v>0.9844152667214612</v>
+        <v>2.192127956666667</v>
       </c>
       <c r="P18">
-        <v>0.9842047644383562</v>
+        <v>1.535767046666667</v>
       </c>
       <c r="Q18">
-        <v>0.9842047644383562</v>
+        <v>1.535767046666667</v>
       </c>
       <c r="R18">
-        <v>0.9585747607945206</v>
+        <v>1.2065400275</v>
       </c>
       <c r="S18">
-        <v>0.9585747607945206</v>
+        <v>1.2065400275</v>
       </c>
       <c r="T18">
-        <v>1.042979504187215</v>
+        <v>1.205073693666667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8787117957894734</v>
+        <v>0.7879287099999999</v>
       </c>
       <c r="D19">
-        <v>1.346592761</v>
+        <v>1.0292497</v>
       </c>
       <c r="E19">
-        <v>0.9135578252631577</v>
+        <v>0.98729176</v>
       </c>
       <c r="F19">
-        <v>1.016213122105263</v>
+        <v>1.0408768</v>
       </c>
       <c r="G19">
-        <v>1.075012418947368</v>
+        <v>1.1499929</v>
       </c>
       <c r="H19">
-        <v>1.043442563052632</v>
+        <v>0.82100996</v>
       </c>
       <c r="I19">
-        <v>0.8787117957894734</v>
+        <v>0.7879287099999999</v>
       </c>
       <c r="J19">
-        <v>1.043442563052632</v>
+        <v>0.82100996</v>
       </c>
       <c r="K19">
-        <v>0.8787117957894734</v>
+        <v>0.7879287099999999</v>
       </c>
       <c r="L19">
-        <v>1.075012418947368</v>
+        <v>1.1499929</v>
       </c>
       <c r="M19">
-        <v>1.059227491</v>
+        <v>0.98550143</v>
       </c>
       <c r="N19">
-        <v>1.059227491</v>
+        <v>0.98550143</v>
       </c>
       <c r="O19">
-        <v>1.010670935754386</v>
+        <v>0.9860982066666667</v>
       </c>
       <c r="P19">
-        <v>0.9990555925964912</v>
+        <v>0.9196438566666666</v>
       </c>
       <c r="Q19">
-        <v>0.9990555925964912</v>
+        <v>0.9196438566666666</v>
       </c>
       <c r="R19">
-        <v>0.9689696433947368</v>
+        <v>0.8867150699999999</v>
       </c>
       <c r="S19">
-        <v>0.9689696433947368</v>
+        <v>0.8867150699999999</v>
       </c>
       <c r="T19">
-        <v>1.045588414359649</v>
+        <v>0.9693916383333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.038299715263158</v>
+        <v>0.8816847498630137</v>
       </c>
       <c r="D20">
-        <v>0.3509733176842105</v>
+        <v>1.391275704136987</v>
       </c>
       <c r="E20">
-        <v>1.409723701052632</v>
+        <v>0.8823162567123286</v>
       </c>
       <c r="F20">
-        <v>0.8023913536842106</v>
+        <v>1.031670770958904</v>
       </c>
       <c r="G20">
-        <v>0.7061252994736843</v>
+        <v>1.095531329452055</v>
       </c>
       <c r="H20">
-        <v>1.772162625263158</v>
+        <v>0.9753982140000003</v>
       </c>
       <c r="I20">
-        <v>1.038299715263158</v>
+        <v>0.8816847498630137</v>
       </c>
       <c r="J20">
-        <v>1.772162625263158</v>
+        <v>0.9753982140000003</v>
       </c>
       <c r="K20">
-        <v>1.038299715263158</v>
+        <v>0.8816847498630137</v>
       </c>
       <c r="L20">
-        <v>0.7061252994736843</v>
+        <v>1.095531329452055</v>
       </c>
       <c r="M20">
-        <v>1.239143962368421</v>
+        <v>1.035464771726027</v>
       </c>
       <c r="N20">
-        <v>1.239143962368421</v>
+        <v>1.035464771726027</v>
       </c>
       <c r="O20">
-        <v>1.296003875263158</v>
+        <v>0.9844152667214612</v>
       </c>
       <c r="P20">
-        <v>1.17219588</v>
+        <v>0.9842047644383562</v>
       </c>
       <c r="Q20">
-        <v>1.17219588</v>
+        <v>0.9842047644383562</v>
       </c>
       <c r="R20">
-        <v>1.13872183881579</v>
+        <v>0.9585747607945206</v>
       </c>
       <c r="S20">
-        <v>1.13872183881579</v>
+        <v>0.9585747607945206</v>
       </c>
       <c r="T20">
-        <v>1.013279335403509</v>
+        <v>1.042979504187215</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8731923049019394</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="D21">
-        <v>2.273757410017423</v>
+        <v>1.346592761</v>
       </c>
       <c r="E21">
-        <v>0.3739415155053741</v>
+        <v>0.9135578252631577</v>
       </c>
       <c r="F21">
-        <v>1.254853269454525</v>
+        <v>1.016213122105263</v>
       </c>
       <c r="G21">
-        <v>1.411107354708371</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="H21">
-        <v>0.1398369913072594</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="I21">
-        <v>0.8731923049019394</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="J21">
-        <v>0.1398369913072594</v>
+        <v>1.043442563052632</v>
       </c>
       <c r="K21">
-        <v>0.8731923049019394</v>
+        <v>0.8787117957894734</v>
       </c>
       <c r="L21">
-        <v>1.411107354708371</v>
+        <v>1.075012418947368</v>
       </c>
       <c r="M21">
-        <v>0.7754721730078151</v>
+        <v>1.059227491</v>
       </c>
       <c r="N21">
-        <v>0.7754721730078151</v>
+        <v>1.059227491</v>
       </c>
       <c r="O21">
-        <v>0.6416286205070014</v>
+        <v>1.010670935754386</v>
       </c>
       <c r="P21">
-        <v>0.8080455503058565</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="Q21">
-        <v>0.8080455503058567</v>
+        <v>0.9990555925964912</v>
       </c>
       <c r="R21">
-        <v>0.8243322389548773</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="S21">
-        <v>0.8243322389548773</v>
+        <v>0.9689696433947368</v>
       </c>
       <c r="T21">
-        <v>1.054448140982482</v>
+        <v>1.045588414359649</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.236171008120947</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="D22">
-        <v>0.9754516980295287</v>
+        <v>0.3509733176842105</v>
       </c>
       <c r="E22">
-        <v>0.8176698907503707</v>
+        <v>1.409723701052632</v>
       </c>
       <c r="F22">
-        <v>1.102555332185788</v>
+        <v>0.8023913536842106</v>
       </c>
       <c r="G22">
-        <v>1.04786352455284</v>
+        <v>0.7061252994736843</v>
       </c>
       <c r="H22">
-        <v>0.539790818061379</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="I22">
-        <v>1.236171008120947</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="J22">
-        <v>0.539790818061379</v>
+        <v>1.772162625263158</v>
       </c>
       <c r="K22">
-        <v>1.236171008120947</v>
+        <v>1.038299715263158</v>
       </c>
       <c r="L22">
-        <v>1.04786352455284</v>
+        <v>0.7061252994736843</v>
       </c>
       <c r="M22">
-        <v>0.7938271713071092</v>
+        <v>1.239143962368421</v>
       </c>
       <c r="N22">
-        <v>0.7938271713071092</v>
+        <v>1.239143962368421</v>
       </c>
       <c r="O22">
-        <v>0.8017747444548631</v>
+        <v>1.296003875263158</v>
       </c>
       <c r="P22">
-        <v>0.9412751169117217</v>
+        <v>1.17219588</v>
       </c>
       <c r="Q22">
-        <v>0.9412751169117218</v>
+        <v>1.17219588</v>
       </c>
       <c r="R22">
-        <v>1.014999089714028</v>
+        <v>1.13872183881579</v>
       </c>
       <c r="S22">
-        <v>1.014999089714028</v>
+        <v>1.13872183881579</v>
       </c>
       <c r="T22">
-        <v>0.9532503786168088</v>
+        <v>1.013279335403509</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9422085480144063</v>
+        <v>0.8731923049019394</v>
       </c>
       <c r="D23">
-        <v>1.012390764726488</v>
+        <v>2.273757410017423</v>
       </c>
       <c r="E23">
-        <v>0.9974542226888108</v>
+        <v>0.3739415155053741</v>
       </c>
       <c r="F23">
-        <v>1.011593383523964</v>
+        <v>1.254853269454525</v>
       </c>
       <c r="G23">
-        <v>1.039747067715987</v>
+        <v>1.411107354708371</v>
       </c>
       <c r="H23">
-        <v>0.9318562016855163</v>
+        <v>0.1398369913072594</v>
       </c>
       <c r="I23">
-        <v>0.9422085480144063</v>
+        <v>0.8731923049019394</v>
       </c>
       <c r="J23">
-        <v>0.9318562016855163</v>
+        <v>0.1398369913072594</v>
       </c>
       <c r="K23">
-        <v>0.9422085480144063</v>
+        <v>0.8731923049019394</v>
       </c>
       <c r="L23">
-        <v>1.039747067715987</v>
+        <v>1.411107354708371</v>
       </c>
       <c r="M23">
-        <v>0.9858016347007517</v>
+        <v>0.7754721730078151</v>
       </c>
       <c r="N23">
-        <v>0.9858016347007517</v>
+        <v>0.7754721730078151</v>
       </c>
       <c r="O23">
-        <v>0.9896858306967714</v>
+        <v>0.6416286205070014</v>
       </c>
       <c r="P23">
-        <v>0.9712706058053032</v>
+        <v>0.8080455503058565</v>
       </c>
       <c r="Q23">
-        <v>0.9712706058053033</v>
+        <v>0.8080455503058567</v>
       </c>
       <c r="R23">
-        <v>0.9640050913575791</v>
+        <v>0.8243322389548773</v>
       </c>
       <c r="S23">
-        <v>0.9640050913575791</v>
+        <v>0.8243322389548773</v>
       </c>
       <c r="T23">
-        <v>0.989208364725862</v>
+        <v>1.054448140982482</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.059548244205389</v>
+        <v>1.236171008120947</v>
       </c>
       <c r="D24">
-        <v>1.02319818206806</v>
+        <v>0.9754516980295287</v>
       </c>
       <c r="E24">
-        <v>0.9928450615510304</v>
+        <v>0.8176698907503707</v>
       </c>
       <c r="F24">
-        <v>0.9890386921676247</v>
+        <v>1.102555332185788</v>
       </c>
       <c r="G24">
-        <v>0.9601667937851361</v>
+        <v>1.04786352455284</v>
       </c>
       <c r="H24">
-        <v>1.067964252920152</v>
+        <v>0.539790818061379</v>
       </c>
       <c r="I24">
-        <v>1.059548244205389</v>
+        <v>1.236171008120947</v>
       </c>
       <c r="J24">
-        <v>1.067964252920152</v>
+        <v>0.539790818061379</v>
       </c>
       <c r="K24">
-        <v>1.059548244205389</v>
+        <v>1.236171008120947</v>
       </c>
       <c r="L24">
-        <v>0.9601667937851361</v>
+        <v>1.04786352455284</v>
       </c>
       <c r="M24">
-        <v>1.014065523352644</v>
+        <v>0.7938271713071092</v>
       </c>
       <c r="N24">
-        <v>1.014065523352644</v>
+        <v>0.7938271713071092</v>
       </c>
       <c r="O24">
-        <v>1.00699203608544</v>
+        <v>0.8017747444548631</v>
       </c>
       <c r="P24">
-        <v>1.029226430303559</v>
+        <v>0.9412751169117217</v>
       </c>
       <c r="Q24">
-        <v>1.029226430303559</v>
+        <v>0.9412751169117218</v>
       </c>
       <c r="R24">
-        <v>1.036806883779016</v>
+        <v>1.014999089714028</v>
       </c>
       <c r="S24">
-        <v>1.036806883779016</v>
+        <v>1.014999089714028</v>
       </c>
       <c r="T24">
-        <v>1.015460204449565</v>
+        <v>0.9532503786168088</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.4955235286572381</v>
+        <v>0.9422085480144063</v>
       </c>
       <c r="D25">
-        <v>0.2116844377548642</v>
+        <v>1.012390764726488</v>
       </c>
       <c r="E25">
-        <v>1.818480992269227</v>
+        <v>0.9974542226888108</v>
       </c>
       <c r="F25">
-        <v>0.6083880670441053</v>
+        <v>1.011593383523964</v>
       </c>
       <c r="G25">
-        <v>0.6548451648534876</v>
+        <v>1.039747067715987</v>
       </c>
       <c r="H25">
-        <v>2.660839704405878</v>
+        <v>0.9318562016855163</v>
       </c>
       <c r="I25">
-        <v>0.4955235286572381</v>
+        <v>0.9422085480144063</v>
       </c>
       <c r="J25">
-        <v>2.660839704405878</v>
+        <v>0.9318562016855163</v>
       </c>
       <c r="K25">
-        <v>0.4955235286572381</v>
+        <v>0.9422085480144063</v>
       </c>
       <c r="L25">
-        <v>0.6548451648534876</v>
+        <v>1.039747067715987</v>
       </c>
       <c r="M25">
-        <v>1.657842434629683</v>
+        <v>0.9858016347007517</v>
       </c>
       <c r="N25">
-        <v>1.657842434629683</v>
+        <v>0.9858016347007517</v>
       </c>
       <c r="O25">
-        <v>1.711388620509531</v>
+        <v>0.9896858306967714</v>
       </c>
       <c r="P25">
-        <v>1.270402799305534</v>
+        <v>0.9712706058053032</v>
       </c>
       <c r="Q25">
-        <v>1.270402799305534</v>
+        <v>0.9712706058053033</v>
       </c>
       <c r="R25">
-        <v>1.07668298164346</v>
+        <v>0.9640050913575791</v>
       </c>
       <c r="S25">
-        <v>1.07668298164346</v>
+        <v>0.9640050913575791</v>
       </c>
       <c r="T25">
-        <v>1.0749603158308</v>
+        <v>0.989208364725862</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9281320838650573</v>
+        <v>1.059548244205389</v>
       </c>
       <c r="D26">
-        <v>0.6337144484550303</v>
+        <v>1.02319818206806</v>
       </c>
       <c r="E26">
-        <v>1.22481930614626</v>
+        <v>0.9928450615510304</v>
       </c>
       <c r="F26">
-        <v>0.9144646330804617</v>
+        <v>0.9890386921676247</v>
       </c>
       <c r="G26">
-        <v>0.9088917048708907</v>
+        <v>0.9601667937851361</v>
       </c>
       <c r="H26">
-        <v>1.268221409307049</v>
+        <v>1.067964252920152</v>
       </c>
       <c r="I26">
-        <v>0.9281320838650573</v>
+        <v>1.059548244205389</v>
       </c>
       <c r="J26">
-        <v>1.268221409307049</v>
+        <v>1.067964252920152</v>
       </c>
       <c r="K26">
-        <v>0.9281320838650573</v>
+        <v>1.059548244205389</v>
       </c>
       <c r="L26">
-        <v>0.9088917048708907</v>
+        <v>0.9601667937851361</v>
       </c>
       <c r="M26">
-        <v>1.08855655708897</v>
+        <v>1.014065523352644</v>
       </c>
       <c r="N26">
-        <v>1.08855655708897</v>
+        <v>1.014065523352644</v>
       </c>
       <c r="O26">
-        <v>1.1339774734414</v>
+        <v>1.00699203608544</v>
       </c>
       <c r="P26">
-        <v>1.035081732680999</v>
+        <v>1.029226430303559</v>
       </c>
       <c r="Q26">
-        <v>1.035081732680999</v>
+        <v>1.029226430303559</v>
       </c>
       <c r="R26">
-        <v>1.008344320477014</v>
+        <v>1.036806883779016</v>
       </c>
       <c r="S26">
-        <v>1.008344320477014</v>
+        <v>1.036806883779016</v>
       </c>
       <c r="T26">
-        <v>0.979707264287458</v>
+        <v>1.015460204449565</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9844722257665109</v>
+        <v>0.4955235286572381</v>
       </c>
       <c r="D27">
-        <v>1.035592815127624</v>
+        <v>0.2116844377548642</v>
       </c>
       <c r="E27">
-        <v>0.9836640882516778</v>
+        <v>1.818480992269227</v>
       </c>
       <c r="F27">
-        <v>1.008794971130202</v>
+        <v>0.6083880670441053</v>
       </c>
       <c r="G27">
-        <v>1.019425321777766</v>
+        <v>0.6548451648534876</v>
       </c>
       <c r="H27">
-        <v>0.9594025325632199</v>
+        <v>2.660839704405878</v>
       </c>
       <c r="I27">
-        <v>0.9844722257665109</v>
+        <v>0.4955235286572381</v>
       </c>
       <c r="J27">
-        <v>0.9594025325632199</v>
+        <v>2.660839704405878</v>
       </c>
       <c r="K27">
-        <v>0.9844722257665109</v>
+        <v>0.4955235286572381</v>
       </c>
       <c r="L27">
-        <v>1.019425321777766</v>
+        <v>0.6548451648534876</v>
       </c>
       <c r="M27">
-        <v>0.9894139271704929</v>
+        <v>1.657842434629683</v>
       </c>
       <c r="N27">
-        <v>0.9894139271704929</v>
+        <v>1.657842434629683</v>
       </c>
       <c r="O27">
-        <v>0.9874973141975545</v>
+        <v>1.711388620509531</v>
       </c>
       <c r="P27">
-        <v>0.9877666933691657</v>
+        <v>1.270402799305534</v>
       </c>
       <c r="Q27">
-        <v>0.9877666933691657</v>
+        <v>1.270402799305534</v>
       </c>
       <c r="R27">
-        <v>0.986943076468502</v>
+        <v>1.07668298164346</v>
       </c>
       <c r="S27">
-        <v>0.986943076468502</v>
+        <v>1.07668298164346</v>
       </c>
       <c r="T27">
-        <v>0.9985586591028334</v>
+        <v>1.0749603158308</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.8680072136110714</v>
+        <v>0.9281320838650573</v>
       </c>
       <c r="D28">
-        <v>1.064326379292296</v>
+        <v>0.6337144484550303</v>
       </c>
       <c r="E28">
-        <v>1.06492736964076</v>
+        <v>1.22481930614626</v>
       </c>
       <c r="F28">
-        <v>0.9606069398411894</v>
+        <v>0.9144646330804617</v>
       </c>
       <c r="G28">
-        <v>0.9987639507733537</v>
+        <v>0.9088917048708907</v>
       </c>
       <c r="H28">
-        <v>1.195147153558401</v>
+        <v>1.268221409307049</v>
       </c>
       <c r="I28">
-        <v>0.8680072136110714</v>
+        <v>0.9281320838650573</v>
       </c>
       <c r="J28">
-        <v>1.195147153558401</v>
+        <v>1.268221409307049</v>
       </c>
       <c r="K28">
-        <v>0.8680072136110714</v>
+        <v>0.9281320838650573</v>
       </c>
       <c r="L28">
-        <v>0.9987639507733537</v>
+        <v>0.9088917048708907</v>
       </c>
       <c r="M28">
-        <v>1.096955552165877</v>
+        <v>1.08855655708897</v>
       </c>
       <c r="N28">
-        <v>1.096955552165877</v>
+        <v>1.08855655708897</v>
       </c>
       <c r="O28">
-        <v>1.086279491324172</v>
+        <v>1.1339774734414</v>
       </c>
       <c r="P28">
-        <v>1.020639439314275</v>
+        <v>1.035081732680999</v>
       </c>
       <c r="Q28">
-        <v>1.020639439314275</v>
+        <v>1.035081732680999</v>
       </c>
       <c r="R28">
-        <v>0.9824813828884744</v>
+        <v>1.008344320477014</v>
       </c>
       <c r="S28">
-        <v>0.9824813828884744</v>
+        <v>1.008344320477014</v>
       </c>
       <c r="T28">
-        <v>1.025296501119512</v>
+        <v>0.979707264287458</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9844722257665109</v>
+      </c>
+      <c r="D29">
+        <v>1.035592815127624</v>
+      </c>
+      <c r="E29">
+        <v>0.9836640882516778</v>
+      </c>
+      <c r="F29">
+        <v>1.008794971130202</v>
+      </c>
+      <c r="G29">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="H29">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="I29">
+        <v>0.9844722257665109</v>
+      </c>
+      <c r="J29">
+        <v>0.9594025325632199</v>
+      </c>
+      <c r="K29">
+        <v>0.9844722257665109</v>
+      </c>
+      <c r="L29">
+        <v>1.019425321777766</v>
+      </c>
+      <c r="M29">
+        <v>0.9894139271704929</v>
+      </c>
+      <c r="N29">
+        <v>0.9894139271704929</v>
+      </c>
+      <c r="O29">
+        <v>0.9874973141975545</v>
+      </c>
+      <c r="P29">
+        <v>0.9877666933691657</v>
+      </c>
+      <c r="Q29">
+        <v>0.9877666933691657</v>
+      </c>
+      <c r="R29">
+        <v>0.986943076468502</v>
+      </c>
+      <c r="S29">
+        <v>0.986943076468502</v>
+      </c>
+      <c r="T29">
+        <v>0.9985586591028334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8680072136110714</v>
+      </c>
+      <c r="D30">
+        <v>1.064326379292296</v>
+      </c>
+      <c r="E30">
+        <v>1.06492736964076</v>
+      </c>
+      <c r="F30">
+        <v>0.9606069398411894</v>
+      </c>
+      <c r="G30">
+        <v>0.9987639507733537</v>
+      </c>
+      <c r="H30">
+        <v>1.195147153558401</v>
+      </c>
+      <c r="I30">
+        <v>0.8680072136110714</v>
+      </c>
+      <c r="J30">
+        <v>1.195147153558401</v>
+      </c>
+      <c r="K30">
+        <v>0.8680072136110714</v>
+      </c>
+      <c r="L30">
+        <v>0.9987639507733537</v>
+      </c>
+      <c r="M30">
+        <v>1.096955552165877</v>
+      </c>
+      <c r="N30">
+        <v>1.096955552165877</v>
+      </c>
+      <c r="O30">
+        <v>1.086279491324172</v>
+      </c>
+      <c r="P30">
+        <v>1.020639439314275</v>
+      </c>
+      <c r="Q30">
+        <v>1.020639439314275</v>
+      </c>
+      <c r="R30">
+        <v>0.9824813828884744</v>
+      </c>
+      <c r="S30">
+        <v>0.9824813828884744</v>
+      </c>
+      <c r="T30">
+        <v>1.025296501119512</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.7688634923958982</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9962733003307934</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.11936980275791</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9508080658934982</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.025579911626161</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.214671865947379</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.7688634923958982</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.214671865947379</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.7688634923958982</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.025579911626161</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.12012588878677</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.12012588878677</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.119873860110483</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.003038423323146</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.003038423323146</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9444946905913342</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9444946905913342</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.01259440649194</v>
       </c>
     </row>
